--- a/data-migration/xlsx_1900-/1915_Winter.xlsx
+++ b/data-migration/xlsx_1900-/1915_Winter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5915F46B-B22C-4F10-A967-AE08B8657076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824D30D3-C7C6-463F-999B-BB3464F92B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3146" uniqueCount="1351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3146" uniqueCount="1352">
   <si>
     <t>Winter</t>
   </si>
@@ -4073,6 +4073,9 @@
   </si>
   <si>
     <t>sidlerhuguenin_e</t>
+  </si>
+  <si>
+    <t>Prof</t>
   </si>
 </sst>
 </file>
@@ -4422,17 +4425,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="K162" sqref="K162"/>
+    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="H196" sqref="H196"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="27.109375" customWidth="1"/>
-    <col min="8" max="8" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1915</v>
       </c>
@@ -4458,7 +4461,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1915</v>
       </c>
@@ -4484,7 +4487,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1915</v>
       </c>
@@ -4510,7 +4513,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1915</v>
       </c>
@@ -4536,7 +4539,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1915</v>
       </c>
@@ -4562,7 +4565,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1915</v>
       </c>
@@ -4588,7 +4591,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1915</v>
       </c>
@@ -4614,7 +4617,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1915</v>
       </c>
@@ -4640,7 +4643,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1915</v>
       </c>
@@ -4666,7 +4669,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1915</v>
       </c>
@@ -4692,7 +4695,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1915</v>
       </c>
@@ -4718,7 +4721,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1915</v>
       </c>
@@ -4744,7 +4747,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1915</v>
       </c>
@@ -4770,7 +4773,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1915</v>
       </c>
@@ -4796,7 +4799,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1915</v>
       </c>
@@ -4822,7 +4825,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1915</v>
       </c>
@@ -4848,7 +4851,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1915</v>
       </c>
@@ -4877,7 +4880,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1915</v>
       </c>
@@ -4903,7 +4906,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1915</v>
       </c>
@@ -4929,7 +4932,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1915</v>
       </c>
@@ -4958,7 +4961,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1915</v>
       </c>
@@ -4984,7 +4987,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1915</v>
       </c>
@@ -5010,7 +5013,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1915</v>
       </c>
@@ -5036,7 +5039,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1915</v>
       </c>
@@ -5062,7 +5065,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1915</v>
       </c>
@@ -5088,7 +5091,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1915</v>
       </c>
@@ -5114,7 +5117,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1915</v>
       </c>
@@ -5140,7 +5143,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1915</v>
       </c>
@@ -5169,7 +5172,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1915</v>
       </c>
@@ -5198,7 +5201,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1915</v>
       </c>
@@ -5224,7 +5227,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1915</v>
       </c>
@@ -5250,7 +5253,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1915</v>
       </c>
@@ -5276,7 +5279,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1915</v>
       </c>
@@ -5302,7 +5305,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1915</v>
       </c>
@@ -5328,7 +5331,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1915</v>
       </c>
@@ -5354,7 +5357,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1915</v>
       </c>
@@ -5380,7 +5383,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1915</v>
       </c>
@@ -5406,7 +5409,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1915</v>
       </c>
@@ -5432,7 +5435,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1915</v>
       </c>
@@ -5458,7 +5461,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1915</v>
       </c>
@@ -5484,7 +5487,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1915</v>
       </c>
@@ -5510,7 +5513,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1915</v>
       </c>
@@ -5536,7 +5539,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1915</v>
       </c>
@@ -5562,7 +5565,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1915</v>
       </c>
@@ -5588,7 +5591,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1915</v>
       </c>
@@ -5614,7 +5617,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1915</v>
       </c>
@@ -5640,7 +5643,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1915</v>
       </c>
@@ -5666,7 +5669,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1915</v>
       </c>
@@ -5692,7 +5695,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1915</v>
       </c>
@@ -5718,7 +5721,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1915</v>
       </c>
@@ -5744,7 +5747,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1915</v>
       </c>
@@ -5770,7 +5773,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1915</v>
       </c>
@@ -5796,7 +5799,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1915</v>
       </c>
@@ -5822,7 +5825,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1915</v>
       </c>
@@ -5848,7 +5851,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1915</v>
       </c>
@@ -5874,7 +5877,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1915</v>
       </c>
@@ -5900,7 +5903,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1915</v>
       </c>
@@ -5926,7 +5929,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1915</v>
       </c>
@@ -5952,7 +5955,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1915</v>
       </c>
@@ -5978,7 +5981,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1915</v>
       </c>
@@ -6007,7 +6010,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1915</v>
       </c>
@@ -6036,7 +6039,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1915</v>
       </c>
@@ -6065,7 +6068,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1915</v>
       </c>
@@ -6091,7 +6094,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1915</v>
       </c>
@@ -6117,7 +6120,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1915</v>
       </c>
@@ -6143,7 +6146,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1915</v>
       </c>
@@ -6169,7 +6172,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1915</v>
       </c>
@@ -6195,7 +6198,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1915</v>
       </c>
@@ -6221,7 +6224,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1915</v>
       </c>
@@ -6247,7 +6250,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1915</v>
       </c>
@@ -6273,7 +6276,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1915</v>
       </c>
@@ -6299,7 +6302,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1915</v>
       </c>
@@ -6325,7 +6328,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1915</v>
       </c>
@@ -6351,7 +6354,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1915</v>
       </c>
@@ -6377,7 +6380,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1915</v>
       </c>
@@ -6403,7 +6406,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1915</v>
       </c>
@@ -6429,7 +6432,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1915</v>
       </c>
@@ -6455,7 +6458,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1915</v>
       </c>
@@ -6481,7 +6484,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1915</v>
       </c>
@@ -6507,7 +6510,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1915</v>
       </c>
@@ -6533,7 +6536,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1915</v>
       </c>
@@ -6559,7 +6562,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1915</v>
       </c>
@@ -6585,7 +6588,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1915</v>
       </c>
@@ -6614,7 +6617,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1915</v>
       </c>
@@ -6640,7 +6643,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1915</v>
       </c>
@@ -6666,7 +6669,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1915</v>
       </c>
@@ -6692,7 +6695,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1915</v>
       </c>
@@ -6724,7 +6727,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1915</v>
       </c>
@@ -6753,7 +6756,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1915</v>
       </c>
@@ -6782,7 +6785,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1915</v>
       </c>
@@ -6808,7 +6811,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1915</v>
       </c>
@@ -6837,7 +6840,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1915</v>
       </c>
@@ -6866,7 +6869,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1915</v>
       </c>
@@ -6895,7 +6898,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1915</v>
       </c>
@@ -6924,7 +6927,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1915</v>
       </c>
@@ -6950,7 +6953,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1915</v>
       </c>
@@ -6976,7 +6979,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1915</v>
       </c>
@@ -7002,7 +7005,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1915</v>
       </c>
@@ -7028,7 +7031,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1915</v>
       </c>
@@ -7054,7 +7057,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1915</v>
       </c>
@@ -7080,7 +7083,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1915</v>
       </c>
@@ -7112,7 +7115,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1915</v>
       </c>
@@ -7144,7 +7147,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1915</v>
       </c>
@@ -7170,7 +7173,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1915</v>
       </c>
@@ -7196,7 +7199,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1915</v>
       </c>
@@ -7222,7 +7225,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1915</v>
       </c>
@@ -7248,7 +7251,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1915</v>
       </c>
@@ -7274,7 +7277,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1915</v>
       </c>
@@ -7300,7 +7303,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1915</v>
       </c>
@@ -7326,7 +7329,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1915</v>
       </c>
@@ -7352,7 +7355,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1915</v>
       </c>
@@ -7378,7 +7381,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1915</v>
       </c>
@@ -7407,7 +7410,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1915</v>
       </c>
@@ -7436,7 +7439,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1915</v>
       </c>
@@ -7465,7 +7468,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1915</v>
       </c>
@@ -7494,7 +7497,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1915</v>
       </c>
@@ -7523,7 +7526,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1915</v>
       </c>
@@ -7552,7 +7555,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1915</v>
       </c>
@@ -7581,7 +7584,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1915</v>
       </c>
@@ -7610,7 +7613,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1915</v>
       </c>
@@ -7636,7 +7639,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1915</v>
       </c>
@@ -7662,7 +7665,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1915</v>
       </c>
@@ -7688,7 +7691,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1915</v>
       </c>
@@ -7714,7 +7717,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1915</v>
       </c>
@@ -7740,7 +7743,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1915</v>
       </c>
@@ -7766,7 +7769,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1915</v>
       </c>
@@ -7792,7 +7795,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1915</v>
       </c>
@@ -7818,7 +7821,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1915</v>
       </c>
@@ -7844,7 +7847,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1915</v>
       </c>
@@ -7870,7 +7873,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1915</v>
       </c>
@@ -7896,7 +7899,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1915</v>
       </c>
@@ -7922,7 +7925,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1915</v>
       </c>
@@ -7948,7 +7951,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1915</v>
       </c>
@@ -7974,7 +7977,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1915</v>
       </c>
@@ -8000,7 +8003,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1915</v>
       </c>
@@ -8026,7 +8029,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1915</v>
       </c>
@@ -8052,7 +8055,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1915</v>
       </c>
@@ -8078,7 +8081,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1915</v>
       </c>
@@ -8104,7 +8107,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1915</v>
       </c>
@@ -8130,7 +8133,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1915</v>
       </c>
@@ -8156,7 +8159,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1915</v>
       </c>
@@ -8182,7 +8185,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1915</v>
       </c>
@@ -8208,7 +8211,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1915</v>
       </c>
@@ -8234,7 +8237,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1915</v>
       </c>
@@ -8260,7 +8263,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1915</v>
       </c>
@@ -8286,7 +8289,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1915</v>
       </c>
@@ -8312,7 +8315,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1915</v>
       </c>
@@ -8338,7 +8341,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>1915</v>
       </c>
@@ -8364,7 +8367,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>1915</v>
       </c>
@@ -8390,7 +8393,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1915</v>
       </c>
@@ -8416,7 +8419,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1915</v>
       </c>
@@ -8442,7 +8445,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1915</v>
       </c>
@@ -8468,7 +8471,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1915</v>
       </c>
@@ -8494,7 +8497,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1915</v>
       </c>
@@ -8526,7 +8529,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1915</v>
       </c>
@@ -8552,7 +8555,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1915</v>
       </c>
@@ -8578,7 +8581,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1915</v>
       </c>
@@ -8604,7 +8607,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1915</v>
       </c>
@@ -8630,7 +8633,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1915</v>
       </c>
@@ -8656,7 +8659,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1915</v>
       </c>
@@ -8682,7 +8685,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>1915</v>
       </c>
@@ -8708,7 +8711,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1915</v>
       </c>
@@ -8734,7 +8737,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1915</v>
       </c>
@@ -8760,7 +8763,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1915</v>
       </c>
@@ -8786,7 +8789,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1915</v>
       </c>
@@ -8812,7 +8815,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>1915</v>
       </c>
@@ -8838,7 +8841,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1915</v>
       </c>
@@ -8864,7 +8867,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1915</v>
       </c>
@@ -8890,7 +8893,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1915</v>
       </c>
@@ -8916,7 +8919,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1915</v>
       </c>
@@ -8942,7 +8945,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>1915</v>
       </c>
@@ -8968,7 +8971,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>1915</v>
       </c>
@@ -8994,7 +8997,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>1915</v>
       </c>
@@ -9020,7 +9023,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1915</v>
       </c>
@@ -9046,7 +9049,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1915</v>
       </c>
@@ -9072,7 +9075,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1915</v>
       </c>
@@ -9098,7 +9101,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1915</v>
       </c>
@@ -9124,7 +9127,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1915</v>
       </c>
@@ -9150,7 +9153,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>1915</v>
       </c>
@@ -9176,7 +9179,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>1915</v>
       </c>
@@ -9202,7 +9205,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>1915</v>
       </c>
@@ -9228,7 +9231,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1915</v>
       </c>
@@ -9254,7 +9257,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1915</v>
       </c>
@@ -9280,7 +9283,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1915</v>
       </c>
@@ -9306,7 +9309,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>1915</v>
       </c>
@@ -9332,7 +9335,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1915</v>
       </c>
@@ -9358,7 +9361,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>1915</v>
       </c>
@@ -9381,10 +9384,10 @@
         <v>1235</v>
       </c>
       <c r="I187" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>1915</v>
       </c>
@@ -9407,10 +9410,10 @@
         <v>1235</v>
       </c>
       <c r="I188" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1915</v>
       </c>
@@ -9433,10 +9436,10 @@
         <v>1235</v>
       </c>
       <c r="I189" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1915</v>
       </c>
@@ -9459,10 +9462,10 @@
         <v>1235</v>
       </c>
       <c r="I190" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1915</v>
       </c>
@@ -9481,11 +9484,11 @@
       <c r="G191" t="s">
         <v>1032</v>
       </c>
-      <c r="I191" t="s">
+      <c r="H191" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>1915</v>
       </c>
@@ -9504,11 +9507,11 @@
       <c r="G192" t="s">
         <v>1033</v>
       </c>
-      <c r="I192" t="s">
+      <c r="H192" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>1915</v>
       </c>
@@ -9527,11 +9530,11 @@
       <c r="G193" t="s">
         <v>1034</v>
       </c>
-      <c r="I193" t="s">
+      <c r="H193" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>1915</v>
       </c>
@@ -9550,11 +9553,11 @@
       <c r="G194" t="s">
         <v>1035</v>
       </c>
-      <c r="I194" t="s">
+      <c r="H194" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1915</v>
       </c>
@@ -9577,10 +9580,10 @@
         <v>1311</v>
       </c>
       <c r="I195" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>1915</v>
       </c>
@@ -9603,10 +9606,10 @@
         <v>1311</v>
       </c>
       <c r="I196" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1915</v>
       </c>
@@ -9629,10 +9632,10 @@
         <v>1311</v>
       </c>
       <c r="I197" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1915</v>
       </c>
@@ -9655,10 +9658,10 @@
         <v>1311</v>
       </c>
       <c r="I198" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1915</v>
       </c>
@@ -9684,7 +9687,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>1915</v>
       </c>
@@ -9710,7 +9713,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1915</v>
       </c>
@@ -9736,7 +9739,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1915</v>
       </c>
@@ -9762,7 +9765,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>1915</v>
       </c>
@@ -9788,7 +9791,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>1915</v>
       </c>
@@ -9814,7 +9817,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>1915</v>
       </c>
@@ -9840,7 +9843,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1915</v>
       </c>
@@ -9869,7 +9872,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>1915</v>
       </c>
@@ -9898,7 +9901,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>1915</v>
       </c>
@@ -9927,7 +9930,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1915</v>
       </c>
@@ -9956,7 +9959,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1915</v>
       </c>
@@ -9982,7 +9985,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>1915</v>
       </c>
@@ -10008,7 +10011,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>1915</v>
       </c>
@@ -10034,7 +10037,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1915</v>
       </c>
@@ -10060,7 +10063,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>1915</v>
       </c>
@@ -10086,7 +10089,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>1915</v>
       </c>
@@ -10112,7 +10115,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>1915</v>
       </c>
@@ -10138,7 +10141,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>1915</v>
       </c>
@@ -10164,7 +10167,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>1915</v>
       </c>
@@ -10190,7 +10193,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>1915</v>
       </c>
@@ -10216,7 +10219,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>1915</v>
       </c>
@@ -10242,7 +10245,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1915</v>
       </c>
@@ -10268,7 +10271,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>1915</v>
       </c>
@@ -10294,7 +10297,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1915</v>
       </c>
@@ -10320,7 +10323,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1915</v>
       </c>
@@ -10346,7 +10349,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>1915</v>
       </c>
@@ -10372,7 +10375,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1915</v>
       </c>
@@ -10398,7 +10401,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1915</v>
       </c>
@@ -10424,7 +10427,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>1915</v>
       </c>
@@ -10450,7 +10453,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>1915</v>
       </c>
@@ -10476,7 +10479,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>1915</v>
       </c>
@@ -10502,7 +10505,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1915</v>
       </c>
@@ -10528,7 +10531,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1915</v>
       </c>
@@ -10554,7 +10557,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>1915</v>
       </c>
@@ -10580,7 +10583,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>1915</v>
       </c>
@@ -10606,7 +10609,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1915</v>
       </c>
@@ -10632,7 +10635,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1915</v>
       </c>
@@ -10658,7 +10661,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1915</v>
       </c>
@@ -10684,7 +10687,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1915</v>
       </c>
@@ -10710,7 +10713,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1915</v>
       </c>
@@ -10739,7 +10742,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1915</v>
       </c>
@@ -10768,7 +10771,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>1915</v>
       </c>
@@ -10794,7 +10797,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>1915</v>
       </c>
@@ -10820,7 +10823,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>1915</v>
       </c>
@@ -10846,7 +10849,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>1915</v>
       </c>
@@ -10875,7 +10878,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>1915</v>
       </c>
@@ -10901,7 +10904,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>1915</v>
       </c>
@@ -10927,7 +10930,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1915</v>
       </c>
@@ -10953,7 +10956,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>1915</v>
       </c>
@@ -10979,7 +10982,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>1915</v>
       </c>
@@ -11005,7 +11008,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1915</v>
       </c>
@@ -11031,7 +11034,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>1915</v>
       </c>
@@ -11057,7 +11060,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>1915</v>
       </c>
@@ -11083,7 +11086,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1915</v>
       </c>
@@ -11109,7 +11112,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1915</v>
       </c>
@@ -11135,7 +11138,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>1915</v>
       </c>
@@ -11161,7 +11164,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>1915</v>
       </c>
@@ -11187,7 +11190,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>1915</v>
       </c>
@@ -11213,7 +11216,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>1915</v>
       </c>
@@ -11239,7 +11242,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>1915</v>
       </c>
@@ -11265,7 +11268,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>1915</v>
       </c>
@@ -11291,7 +11294,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>1915</v>
       </c>
@@ -11317,7 +11320,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>1915</v>
       </c>
@@ -11343,7 +11346,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>1915</v>
       </c>
@@ -11369,7 +11372,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>1915</v>
       </c>
@@ -11395,7 +11398,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>1915</v>
       </c>
@@ -11421,7 +11424,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>1915</v>
       </c>
@@ -11447,7 +11450,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>1915</v>
       </c>
@@ -11473,7 +11476,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>1915</v>
       </c>
@@ -11499,7 +11502,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>1915</v>
       </c>
@@ -11525,7 +11528,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>1915</v>
       </c>
@@ -11551,7 +11554,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>1915</v>
       </c>
@@ -11577,7 +11580,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>1915</v>
       </c>
@@ -11603,7 +11606,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>1915</v>
       </c>
@@ -11629,7 +11632,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>1915</v>
       </c>
@@ -11655,7 +11658,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>1915</v>
       </c>
@@ -11681,7 +11684,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>1915</v>
       </c>
@@ -11707,7 +11710,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>1915</v>
       </c>
@@ -11733,7 +11736,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>1915</v>
       </c>
@@ -11759,7 +11762,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>1915</v>
       </c>
@@ -11785,7 +11788,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>1915</v>
       </c>
@@ -11811,7 +11814,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>1915</v>
       </c>
@@ -11837,7 +11840,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>1915</v>
       </c>
@@ -11866,7 +11869,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>1915</v>
       </c>
@@ -11892,7 +11895,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>1915</v>
       </c>
@@ -11918,7 +11921,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>1915</v>
       </c>
@@ -11944,7 +11947,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>1915</v>
       </c>
@@ -11970,7 +11973,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>1915</v>
       </c>
@@ -11996,7 +11999,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>1915</v>
       </c>
@@ -12022,7 +12025,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>1915</v>
       </c>
@@ -12048,7 +12051,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>1915</v>
       </c>
@@ -12074,7 +12077,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>1915</v>
       </c>
@@ -12100,7 +12103,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>1915</v>
       </c>
@@ -12126,7 +12129,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>1915</v>
       </c>
@@ -12152,7 +12155,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>1915</v>
       </c>
@@ -12178,7 +12181,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>1915</v>
       </c>
@@ -12207,7 +12210,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>1915</v>
       </c>
@@ -12236,7 +12239,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>1915</v>
       </c>
@@ -12262,7 +12265,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>1915</v>
       </c>
@@ -12288,7 +12291,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>1915</v>
       </c>
@@ -12314,7 +12317,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>1915</v>
       </c>
@@ -12340,7 +12343,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>1915</v>
       </c>
@@ -12366,7 +12369,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>1915</v>
       </c>
@@ -12392,7 +12395,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>1915</v>
       </c>
@@ -12418,7 +12421,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>1915</v>
       </c>
@@ -12444,7 +12447,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>1915</v>
       </c>
@@ -12470,7 +12473,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>1915</v>
       </c>
@@ -12496,7 +12499,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>1915</v>
       </c>
@@ -12522,7 +12525,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>1915</v>
       </c>
@@ -12548,7 +12551,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>1915</v>
       </c>
@@ -12574,7 +12577,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>1915</v>
       </c>
@@ -12600,7 +12603,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>1915</v>
       </c>
@@ -12626,7 +12629,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>1915</v>
       </c>
@@ -12652,7 +12655,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>1915</v>
       </c>
@@ -12678,7 +12681,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>1915</v>
       </c>
@@ -12704,7 +12707,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>1915</v>
       </c>
@@ -12730,7 +12733,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>1915</v>
       </c>
@@ -12756,7 +12759,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>1915</v>
       </c>
@@ -12782,7 +12785,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>1915</v>
       </c>
@@ -12808,7 +12811,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>1915</v>
       </c>
@@ -12834,7 +12837,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>1915</v>
       </c>
@@ -12860,7 +12863,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>1915</v>
       </c>
@@ -12886,7 +12889,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>1915</v>
       </c>
@@ -12912,7 +12915,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>1915</v>
       </c>
@@ -12941,7 +12944,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>1915</v>
       </c>
@@ -12967,7 +12970,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>1915</v>
       </c>
@@ -12993,7 +12996,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>1915</v>
       </c>
@@ -13019,7 +13022,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>1915</v>
       </c>
@@ -13045,7 +13048,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>1915</v>
       </c>
@@ -13071,7 +13074,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>1915</v>
       </c>
@@ -13097,7 +13100,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>1915</v>
       </c>
@@ -13123,7 +13126,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>1915</v>
       </c>
@@ -13149,7 +13152,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>1915</v>
       </c>
@@ -13175,7 +13178,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>1915</v>
       </c>
@@ -13201,7 +13204,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>1915</v>
       </c>
@@ -13227,7 +13230,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>1915</v>
       </c>
@@ -13253,7 +13256,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>1915</v>
       </c>
@@ -13279,7 +13282,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>1915</v>
       </c>
@@ -13305,7 +13308,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>1915</v>
       </c>
@@ -13334,7 +13337,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>1915</v>
       </c>
@@ -13360,7 +13363,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>1915</v>
       </c>
@@ -13386,7 +13389,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>1915</v>
       </c>
@@ -13412,7 +13415,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>1915</v>
       </c>
@@ -13438,7 +13441,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>1915</v>
       </c>
@@ -13464,7 +13467,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>1915</v>
       </c>
@@ -13490,7 +13493,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>1915</v>
       </c>
@@ -13516,7 +13519,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>1915</v>
       </c>
@@ -13542,7 +13545,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>1915</v>
       </c>
@@ -13568,7 +13571,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>1915</v>
       </c>
@@ -13594,7 +13597,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>1915</v>
       </c>
@@ -13620,7 +13623,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>1915</v>
       </c>
@@ -13646,7 +13649,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>1915</v>
       </c>
@@ -13672,7 +13675,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>1915</v>
       </c>
@@ -13698,7 +13701,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>1915</v>
       </c>
@@ -13724,7 +13727,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>1915</v>
       </c>
@@ -13750,7 +13753,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>1915</v>
       </c>
@@ -13776,7 +13779,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>1915</v>
       </c>
@@ -13802,7 +13805,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>1915</v>
       </c>
@@ -13831,7 +13834,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>1915</v>
       </c>
@@ -13860,7 +13863,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>1915</v>
       </c>
@@ -13889,7 +13892,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>1915</v>
       </c>
@@ -13918,7 +13921,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>1915</v>
       </c>
@@ -13944,7 +13947,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>1915</v>
       </c>
@@ -13970,7 +13973,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>1915</v>
       </c>
@@ -13996,7 +13999,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>1915</v>
       </c>
@@ -14022,7 +14025,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>1915</v>
       </c>
@@ -14048,7 +14051,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>1915</v>
       </c>
@@ -14074,7 +14077,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>1915</v>
       </c>
@@ -14100,7 +14103,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>1915</v>
       </c>
@@ -14126,7 +14129,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>1915</v>
       </c>
@@ -14152,7 +14155,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>1915</v>
       </c>
@@ -14181,7 +14184,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>1915</v>
       </c>
@@ -14207,7 +14210,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>1915</v>
       </c>
@@ -14233,7 +14236,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>1915</v>
       </c>
@@ -14259,7 +14262,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>1915</v>
       </c>
@@ -14285,7 +14288,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>1915</v>
       </c>
@@ -14311,7 +14314,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>1915</v>
       </c>
@@ -14337,7 +14340,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>1915</v>
       </c>
@@ -14363,7 +14366,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>1915</v>
       </c>
@@ -14389,7 +14392,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>1915</v>
       </c>
@@ -14415,7 +14418,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>1915</v>
       </c>
@@ -14441,7 +14444,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>1915</v>
       </c>
@@ -14467,7 +14470,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>1915</v>
       </c>
@@ -14496,7 +14499,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>1915</v>
       </c>
@@ -14525,7 +14528,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>1915</v>
       </c>
@@ -14554,7 +14557,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>1915</v>
       </c>
@@ -14583,7 +14586,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>1915</v>
       </c>
@@ -14609,7 +14612,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>1915</v>
       </c>
@@ -14635,7 +14638,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>1915</v>
       </c>
@@ -14661,7 +14664,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>1915</v>
       </c>
@@ -14687,7 +14690,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>1915</v>
       </c>
@@ -14713,7 +14716,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>1915</v>
       </c>
@@ -14739,7 +14742,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>1915</v>
       </c>
@@ -14768,7 +14771,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>1915</v>
       </c>
@@ -14797,7 +14800,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>1915</v>
       </c>
@@ -14826,7 +14829,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>1915</v>
       </c>
@@ -14855,7 +14858,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>1915</v>
       </c>
@@ -14884,7 +14887,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>1915</v>
       </c>
@@ -14913,7 +14916,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>1915</v>
       </c>
@@ -14942,7 +14945,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>1915</v>
       </c>
@@ -14971,7 +14974,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>1915</v>
       </c>
@@ -15000,7 +15003,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>1915</v>
       </c>
@@ -15026,7 +15029,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>1915</v>
       </c>
@@ -15052,7 +15055,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>1915</v>
       </c>
@@ -15078,7 +15081,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>1915</v>
       </c>
@@ -15104,7 +15107,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>1915</v>
       </c>
@@ -15130,7 +15133,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>1915</v>
       </c>
@@ -15156,7 +15159,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>1915</v>
       </c>
@@ -15188,7 +15191,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>1915</v>
       </c>
@@ -15214,7 +15217,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>1915</v>
       </c>
@@ -15240,7 +15243,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>1915</v>
       </c>
@@ -15266,7 +15269,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>1915</v>
       </c>
@@ -15292,7 +15295,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>1915</v>
       </c>
@@ -15318,7 +15321,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>1915</v>
       </c>
@@ -15344,7 +15347,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>1915</v>
       </c>
@@ -15370,7 +15373,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>1915</v>
       </c>
@@ -15396,7 +15399,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>1915</v>
       </c>
@@ -15422,7 +15425,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>1915</v>
       </c>
@@ -15448,7 +15451,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>1915</v>
       </c>
@@ -15474,7 +15477,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>1915</v>
       </c>
@@ -15500,7 +15503,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>1915</v>
       </c>
@@ -15526,7 +15529,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>1915</v>
       </c>
@@ -15552,7 +15555,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>1915</v>
       </c>
@@ -15578,7 +15581,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>1915</v>
       </c>
@@ -15607,7 +15610,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>1915</v>
       </c>
@@ -15633,7 +15636,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>1915</v>
       </c>
@@ -15659,7 +15662,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>1915</v>
       </c>
@@ -15685,7 +15688,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>1915</v>
       </c>
@@ -15711,7 +15714,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>1915</v>
       </c>
@@ -15737,7 +15740,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>1915</v>
       </c>
@@ -15763,7 +15766,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>1915</v>
       </c>
@@ -15789,7 +15792,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>1915</v>
       </c>
@@ -15815,7 +15818,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>1915</v>
       </c>
@@ -15841,7 +15844,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>1915</v>
       </c>
@@ -15867,7 +15870,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>1915</v>
       </c>
@@ -15893,7 +15896,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>1915</v>
       </c>
@@ -15919,7 +15922,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>1915</v>
       </c>
@@ -15945,7 +15948,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>1915</v>
       </c>
@@ -15971,7 +15974,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>1915</v>
       </c>
@@ -15997,7 +16000,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>1915</v>
       </c>
@@ -16023,7 +16026,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>1915</v>
       </c>
@@ -16049,7 +16052,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>1915</v>
       </c>

--- a/data-migration/xlsx_1900-/1915_Winter.xlsx
+++ b/data-migration/xlsx_1900-/1915_Winter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824D30D3-C7C6-463F-999B-BB3464F92B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8041B73-7D7F-49E7-A08D-54ACF33CE16F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3913,9 +3913,6 @@
     <t>schlaginhaufen_o</t>
   </si>
   <si>
-    <t>escher_a</t>
-  </si>
-  <si>
     <t>huber_m</t>
   </si>
   <si>
@@ -3931,9 +3928,6 @@
     <t>sauerbruch_f</t>
   </si>
   <si>
-    <t>brunner_g</t>
-  </si>
-  <si>
     <t>fick_age</t>
   </si>
   <si>
@@ -3943,18 +3937,12 @@
     <t>meyerwirz_e</t>
   </si>
   <si>
-    <t>anderes _e</t>
-  </si>
-  <si>
     <t>maier_hw</t>
   </si>
   <si>
     <t>veraguth_o</t>
   </si>
   <si>
-    <t>nager _fr</t>
-  </si>
-  <si>
     <t>gysi_a</t>
   </si>
   <si>
@@ -4076,6 +4064,18 @@
   </si>
   <si>
     <t>Prof</t>
+  </si>
+  <si>
+    <t>escher_a2</t>
+  </si>
+  <si>
+    <t>brun_h</t>
+  </si>
+  <si>
+    <t>nager_fr</t>
+  </si>
+  <si>
+    <t>anderes_e</t>
   </si>
 </sst>
 </file>
@@ -4425,17 +4425,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="H196" sqref="H196"/>
+    <sheetView tabSelected="1" topLeftCell="E156" workbookViewId="0">
+      <selection activeCell="H168" sqref="H168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="27.140625" customWidth="1"/>
-    <col min="8" max="8" width="24.28515625" customWidth="1"/>
+    <col min="5" max="5" width="27.109375" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1915</v>
       </c>
@@ -4458,10 +4458,10 @@
         <v>1185</v>
       </c>
       <c r="I1" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1915</v>
       </c>
@@ -4484,10 +4484,10 @@
         <v>1186</v>
       </c>
       <c r="I2" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1915</v>
       </c>
@@ -4510,10 +4510,10 @@
         <v>1186</v>
       </c>
       <c r="I3" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1915</v>
       </c>
@@ -4536,10 +4536,10 @@
         <v>1186</v>
       </c>
       <c r="I4" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1915</v>
       </c>
@@ -4559,13 +4559,13 @@
         <v>893</v>
       </c>
       <c r="H5" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="I5" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1915</v>
       </c>
@@ -4585,13 +4585,13 @@
         <v>894</v>
       </c>
       <c r="H6" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="I6" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1915</v>
       </c>
@@ -4614,10 +4614,10 @@
         <v>1185</v>
       </c>
       <c r="I7" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1915</v>
       </c>
@@ -4640,10 +4640,10 @@
         <v>1185</v>
       </c>
       <c r="I8" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1915</v>
       </c>
@@ -4663,13 +4663,13 @@
         <v>897</v>
       </c>
       <c r="H9" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="I9" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1915</v>
       </c>
@@ -4689,13 +4689,13 @@
         <v>898</v>
       </c>
       <c r="H10" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="I10" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1915</v>
       </c>
@@ -4718,10 +4718,10 @@
         <v>1185</v>
       </c>
       <c r="I11" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1915</v>
       </c>
@@ -4744,10 +4744,10 @@
         <v>1187</v>
       </c>
       <c r="I12" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1915</v>
       </c>
@@ -4770,10 +4770,10 @@
         <v>1187</v>
       </c>
       <c r="I13" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1915</v>
       </c>
@@ -4793,13 +4793,13 @@
         <v>902</v>
       </c>
       <c r="H14" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="I14" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1915</v>
       </c>
@@ -4819,13 +4819,13 @@
         <v>903</v>
       </c>
       <c r="H15" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="I15" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1915</v>
       </c>
@@ -4848,10 +4848,10 @@
         <v>1187</v>
       </c>
       <c r="I16" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1915</v>
       </c>
@@ -4874,13 +4874,13 @@
         <v>1188</v>
       </c>
       <c r="I17" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="J17" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1915</v>
       </c>
@@ -4900,13 +4900,13 @@
         <v>905</v>
       </c>
       <c r="H18" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="I18" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1915</v>
       </c>
@@ -4926,13 +4926,13 @@
         <v>906</v>
       </c>
       <c r="H19" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="I19" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1915</v>
       </c>
@@ -4955,13 +4955,13 @@
         <v>1188</v>
       </c>
       <c r="I20" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="J20" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1915</v>
       </c>
@@ -4981,13 +4981,13 @@
         <v>907</v>
       </c>
       <c r="H21" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="I21" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1915</v>
       </c>
@@ -5010,10 +5010,10 @@
         <v>1189</v>
       </c>
       <c r="I22" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1915</v>
       </c>
@@ -5036,10 +5036,10 @@
         <v>1189</v>
       </c>
       <c r="I23" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1915</v>
       </c>
@@ -5062,10 +5062,10 @@
         <v>1186</v>
       </c>
       <c r="I24" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1915</v>
       </c>
@@ -5085,13 +5085,13 @@
         <v>911</v>
       </c>
       <c r="H25" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="I25" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1915</v>
       </c>
@@ -5114,10 +5114,10 @@
         <v>1185</v>
       </c>
       <c r="I26" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1915</v>
       </c>
@@ -5140,10 +5140,10 @@
         <v>1187</v>
       </c>
       <c r="I27" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1915</v>
       </c>
@@ -5166,13 +5166,13 @@
         <v>1188</v>
       </c>
       <c r="I28" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="J28" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1915</v>
       </c>
@@ -5195,13 +5195,13 @@
         <v>1188</v>
       </c>
       <c r="I29" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="J29" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1915</v>
       </c>
@@ -5221,13 +5221,13 @@
         <v>915</v>
       </c>
       <c r="H30" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="I30" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1915</v>
       </c>
@@ -5250,10 +5250,10 @@
         <v>1190</v>
       </c>
       <c r="I31" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1915</v>
       </c>
@@ -5276,10 +5276,10 @@
         <v>1191</v>
       </c>
       <c r="I32" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1915</v>
       </c>
@@ -5302,10 +5302,10 @@
         <v>1192</v>
       </c>
       <c r="I33" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1915</v>
       </c>
@@ -5328,10 +5328,10 @@
         <v>1192</v>
       </c>
       <c r="I34" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1915</v>
       </c>
@@ -5354,10 +5354,10 @@
         <v>1192</v>
       </c>
       <c r="I35" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1915</v>
       </c>
@@ -5380,10 +5380,10 @@
         <v>1193</v>
       </c>
       <c r="I36" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1915</v>
       </c>
@@ -5406,10 +5406,10 @@
         <v>1194</v>
       </c>
       <c r="I37" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1915</v>
       </c>
@@ -5432,10 +5432,10 @@
         <v>1194</v>
       </c>
       <c r="I38" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1915</v>
       </c>
@@ -5455,13 +5455,13 @@
         <v>913</v>
       </c>
       <c r="H39" t="s">
-        <v>1297</v>
+        <v>1348</v>
       </c>
       <c r="I39" t="s">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1915</v>
       </c>
@@ -5484,10 +5484,10 @@
         <v>1195</v>
       </c>
       <c r="I40" t="s">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1915</v>
       </c>
@@ -5510,10 +5510,10 @@
         <v>1193</v>
       </c>
       <c r="I41" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1915</v>
       </c>
@@ -5536,10 +5536,10 @@
         <v>1193</v>
       </c>
       <c r="I42" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1915</v>
       </c>
@@ -5562,10 +5562,10 @@
         <v>1196</v>
       </c>
       <c r="I43" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1915</v>
       </c>
@@ -5588,10 +5588,10 @@
         <v>1196</v>
       </c>
       <c r="I44" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1915</v>
       </c>
@@ -5614,10 +5614,10 @@
         <v>1190</v>
       </c>
       <c r="I45" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1915</v>
       </c>
@@ -5640,10 +5640,10 @@
         <v>1196</v>
       </c>
       <c r="I46" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1915</v>
       </c>
@@ -5666,10 +5666,10 @@
         <v>1190</v>
       </c>
       <c r="I47" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1915</v>
       </c>
@@ -5692,10 +5692,10 @@
         <v>1197</v>
       </c>
       <c r="I48" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1915</v>
       </c>
@@ -5715,13 +5715,13 @@
         <v>932</v>
       </c>
       <c r="H49" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="I49" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1915</v>
       </c>
@@ -5744,10 +5744,10 @@
         <v>1198</v>
       </c>
       <c r="I50" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1915</v>
       </c>
@@ -5770,10 +5770,10 @@
         <v>1198</v>
       </c>
       <c r="I51" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1915</v>
       </c>
@@ -5793,13 +5793,13 @@
         <v>935</v>
       </c>
       <c r="H52" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="I52" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1915</v>
       </c>
@@ -5822,10 +5822,10 @@
         <v>1199</v>
       </c>
       <c r="I53" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1915</v>
       </c>
@@ -5848,10 +5848,10 @@
         <v>1200</v>
       </c>
       <c r="I54" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1915</v>
       </c>
@@ -5874,10 +5874,10 @@
         <v>1200</v>
       </c>
       <c r="I55" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1915</v>
       </c>
@@ -5897,13 +5897,13 @@
         <v>938</v>
       </c>
       <c r="H56" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="I56" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1915</v>
       </c>
@@ -5923,13 +5923,13 @@
         <v>939</v>
       </c>
       <c r="H57" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="I57" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1915</v>
       </c>
@@ -5949,13 +5949,13 @@
         <v>940</v>
       </c>
       <c r="H58" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="I58" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1915</v>
       </c>
@@ -5978,10 +5978,10 @@
         <v>1202</v>
       </c>
       <c r="I59" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1915</v>
       </c>
@@ -6001,16 +6001,16 @@
         <v>942</v>
       </c>
       <c r="H60" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="I60" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="J60" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1915</v>
       </c>
@@ -6030,16 +6030,16 @@
         <v>943</v>
       </c>
       <c r="H61" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="I61" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="J61" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1915</v>
       </c>
@@ -6059,16 +6059,16 @@
         <v>897</v>
       </c>
       <c r="H62" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="I62" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="J62" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1915</v>
       </c>
@@ -6091,10 +6091,10 @@
         <v>1204</v>
       </c>
       <c r="I63" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1915</v>
       </c>
@@ -6117,10 +6117,10 @@
         <v>1205</v>
       </c>
       <c r="I64" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1915</v>
       </c>
@@ -6143,10 +6143,10 @@
         <v>1206</v>
       </c>
       <c r="I65" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1915</v>
       </c>
@@ -6166,13 +6166,13 @@
         <v>946</v>
       </c>
       <c r="H66" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="I66" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1915</v>
       </c>
@@ -6195,10 +6195,10 @@
         <v>1190</v>
       </c>
       <c r="I67" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1915</v>
       </c>
@@ -6221,10 +6221,10 @@
         <v>1192</v>
       </c>
       <c r="I68" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1915</v>
       </c>
@@ -6247,10 +6247,10 @@
         <v>1207</v>
       </c>
       <c r="I69" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1915</v>
       </c>
@@ -6273,10 +6273,10 @@
         <v>1207</v>
       </c>
       <c r="I70" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1915</v>
       </c>
@@ -6299,10 +6299,10 @@
         <v>1194</v>
       </c>
       <c r="I71" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1915</v>
       </c>
@@ -6325,10 +6325,10 @@
         <v>1193</v>
       </c>
       <c r="I72" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1915</v>
       </c>
@@ -6351,10 +6351,10 @@
         <v>1196</v>
       </c>
       <c r="I73" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1915</v>
       </c>
@@ -6377,10 +6377,10 @@
         <v>1191</v>
       </c>
       <c r="I74" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1915</v>
       </c>
@@ -6403,10 +6403,10 @@
         <v>1198</v>
       </c>
       <c r="I75" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1915</v>
       </c>
@@ -6426,13 +6426,13 @@
         <v>953</v>
       </c>
       <c r="H76" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="I76" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1915</v>
       </c>
@@ -6455,10 +6455,10 @@
         <v>1208</v>
       </c>
       <c r="I77" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1915</v>
       </c>
@@ -6481,10 +6481,10 @@
         <v>1199</v>
       </c>
       <c r="I78" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1915</v>
       </c>
@@ -6507,10 +6507,10 @@
         <v>1199</v>
       </c>
       <c r="I79" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1915</v>
       </c>
@@ -6533,10 +6533,10 @@
         <v>1200</v>
       </c>
       <c r="I80" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1915</v>
       </c>
@@ -6559,10 +6559,10 @@
         <v>1200</v>
       </c>
       <c r="I81" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1915</v>
       </c>
@@ -6585,10 +6585,10 @@
         <v>1202</v>
       </c>
       <c r="I82" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1915</v>
       </c>
@@ -6608,16 +6608,16 @@
         <v>911</v>
       </c>
       <c r="H83" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="I83" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="J83" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1915</v>
       </c>
@@ -6640,10 +6640,10 @@
         <v>1204</v>
       </c>
       <c r="I84" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1915</v>
       </c>
@@ -6666,10 +6666,10 @@
         <v>1204</v>
       </c>
       <c r="I85" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1915</v>
       </c>
@@ -6692,10 +6692,10 @@
         <v>1209</v>
       </c>
       <c r="I86" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1915</v>
       </c>
@@ -6718,16 +6718,16 @@
         <v>1210</v>
       </c>
       <c r="I87" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="K87" t="s">
         <v>1211</v>
       </c>
       <c r="L87" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1915</v>
       </c>
@@ -6753,10 +6753,10 @@
         <v>1210</v>
       </c>
       <c r="I88" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1915</v>
       </c>
@@ -6782,10 +6782,10 @@
         <v>1210</v>
       </c>
       <c r="I89" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1915</v>
       </c>
@@ -6808,10 +6808,10 @@
         <v>1210</v>
       </c>
       <c r="I90" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1915</v>
       </c>
@@ -6834,13 +6834,13 @@
         <v>963</v>
       </c>
       <c r="H91" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="I91" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1915</v>
       </c>
@@ -6866,10 +6866,10 @@
         <v>1211</v>
       </c>
       <c r="I92" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1915</v>
       </c>
@@ -6895,10 +6895,10 @@
         <v>1211</v>
       </c>
       <c r="I93" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1915</v>
       </c>
@@ -6924,10 +6924,10 @@
         <v>1211</v>
       </c>
       <c r="I94" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1915</v>
       </c>
@@ -6947,13 +6947,13 @@
         <v>967</v>
       </c>
       <c r="H95" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="I95" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1915</v>
       </c>
@@ -6973,13 +6973,13 @@
         <v>968</v>
       </c>
       <c r="H96" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="I96" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1915</v>
       </c>
@@ -6999,13 +6999,13 @@
         <v>969</v>
       </c>
       <c r="H97" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="I97" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1915</v>
       </c>
@@ -7028,10 +7028,10 @@
         <v>1212</v>
       </c>
       <c r="I98" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1915</v>
       </c>
@@ -7054,10 +7054,10 @@
         <v>1212</v>
       </c>
       <c r="I99" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1915</v>
       </c>
@@ -7080,10 +7080,10 @@
         <v>1212</v>
       </c>
       <c r="I100" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1915</v>
       </c>
@@ -7106,16 +7106,16 @@
         <v>1212</v>
       </c>
       <c r="I101" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="K101" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="L101" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1915</v>
       </c>
@@ -7138,16 +7138,16 @@
         <v>1212</v>
       </c>
       <c r="I102" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="K102" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="L102" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1915</v>
       </c>
@@ -7167,13 +7167,13 @@
         <v>890</v>
       </c>
       <c r="H103" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="I103" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1915</v>
       </c>
@@ -7196,10 +7196,10 @@
         <v>1213</v>
       </c>
       <c r="I104" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1915</v>
       </c>
@@ -7222,10 +7222,10 @@
         <v>1213</v>
       </c>
       <c r="I105" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1915</v>
       </c>
@@ -7245,13 +7245,13 @@
         <v>974</v>
       </c>
       <c r="H106" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="I106" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1915</v>
       </c>
@@ -7271,13 +7271,13 @@
         <v>975</v>
       </c>
       <c r="H107" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="I107" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1915</v>
       </c>
@@ -7297,13 +7297,13 @@
         <v>976</v>
       </c>
       <c r="H108" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="I108" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1915</v>
       </c>
@@ -7323,13 +7323,13 @@
         <v>909</v>
       </c>
       <c r="H109" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="I109" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1915</v>
       </c>
@@ -7352,10 +7352,10 @@
         <v>1214</v>
       </c>
       <c r="I110" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1915</v>
       </c>
@@ -7378,10 +7378,10 @@
         <v>1214</v>
       </c>
       <c r="I111" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1915</v>
       </c>
@@ -7404,13 +7404,13 @@
         <v>1215</v>
       </c>
       <c r="I112" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="J112" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1915</v>
       </c>
@@ -7433,13 +7433,13 @@
         <v>1215</v>
       </c>
       <c r="I113" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="J113" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1915</v>
       </c>
@@ -7462,13 +7462,13 @@
         <v>1215</v>
       </c>
       <c r="I114" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="J114" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1915</v>
       </c>
@@ -7491,13 +7491,13 @@
         <v>1215</v>
       </c>
       <c r="I115" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="J115" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1915</v>
       </c>
@@ -7520,13 +7520,13 @@
         <v>1215</v>
       </c>
       <c r="I116" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="J116" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1915</v>
       </c>
@@ -7549,13 +7549,13 @@
         <v>1215</v>
       </c>
       <c r="I117" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="J117" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1915</v>
       </c>
@@ -7575,16 +7575,16 @@
         <v>982</v>
       </c>
       <c r="H118" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="I118" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="J118" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1915</v>
       </c>
@@ -7604,16 +7604,16 @@
         <v>983</v>
       </c>
       <c r="H119" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="I119" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="J119" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1915</v>
       </c>
@@ -7636,10 +7636,10 @@
         <v>1216</v>
       </c>
       <c r="I120" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1915</v>
       </c>
@@ -7662,10 +7662,10 @@
         <v>1216</v>
       </c>
       <c r="I121" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1915</v>
       </c>
@@ -7688,10 +7688,10 @@
         <v>1216</v>
       </c>
       <c r="I122" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1915</v>
       </c>
@@ -7714,10 +7714,10 @@
         <v>1216</v>
       </c>
       <c r="I123" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1915</v>
       </c>
@@ -7737,13 +7737,13 @@
         <v>890</v>
       </c>
       <c r="H124" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="I124" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1915</v>
       </c>
@@ -7766,10 +7766,10 @@
         <v>1217</v>
       </c>
       <c r="I125" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1915</v>
       </c>
@@ -7792,10 +7792,10 @@
         <v>1201</v>
       </c>
       <c r="I126" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1915</v>
       </c>
@@ -7818,10 +7818,10 @@
         <v>1201</v>
       </c>
       <c r="I127" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1915</v>
       </c>
@@ -7844,10 +7844,10 @@
         <v>1201</v>
       </c>
       <c r="I128" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1915</v>
       </c>
@@ -7870,10 +7870,10 @@
         <v>1218</v>
       </c>
       <c r="I129" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1915</v>
       </c>
@@ -7896,10 +7896,10 @@
         <v>1218</v>
       </c>
       <c r="I130" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1915</v>
       </c>
@@ -7922,10 +7922,10 @@
         <v>1218</v>
       </c>
       <c r="I131" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1915</v>
       </c>
@@ -7948,10 +7948,10 @@
         <v>1219</v>
       </c>
       <c r="I132" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1915</v>
       </c>
@@ -7974,10 +7974,10 @@
         <v>1219</v>
       </c>
       <c r="I133" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1915</v>
       </c>
@@ -8000,10 +8000,10 @@
         <v>1219</v>
       </c>
       <c r="I134" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1915</v>
       </c>
@@ -8026,10 +8026,10 @@
         <v>1219</v>
       </c>
       <c r="I135" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1915</v>
       </c>
@@ -8052,10 +8052,10 @@
         <v>1220</v>
       </c>
       <c r="I136" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1915</v>
       </c>
@@ -8078,10 +8078,10 @@
         <v>1220</v>
       </c>
       <c r="I137" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1915</v>
       </c>
@@ -8104,10 +8104,10 @@
         <v>1221</v>
       </c>
       <c r="I138" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>1915</v>
       </c>
@@ -8130,10 +8130,10 @@
         <v>1222</v>
       </c>
       <c r="I139" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1915</v>
       </c>
@@ -8156,10 +8156,10 @@
         <v>1222</v>
       </c>
       <c r="I140" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1915</v>
       </c>
@@ -8182,10 +8182,10 @@
         <v>1222</v>
       </c>
       <c r="I141" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1915</v>
       </c>
@@ -8205,13 +8205,13 @@
         <v>997</v>
       </c>
       <c r="H142" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="I142" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1915</v>
       </c>
@@ -8231,13 +8231,13 @@
         <v>998</v>
       </c>
       <c r="H143" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="I143" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1915</v>
       </c>
@@ -8260,10 +8260,10 @@
         <v>1223</v>
       </c>
       <c r="I144" t="s">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1915</v>
       </c>
@@ -8286,10 +8286,10 @@
         <v>1223</v>
       </c>
       <c r="I145" t="s">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>1915</v>
       </c>
@@ -8312,10 +8312,10 @@
         <v>1223</v>
       </c>
       <c r="I146" t="s">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1915</v>
       </c>
@@ -8338,10 +8338,10 @@
         <v>1224</v>
       </c>
       <c r="I147" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>1915</v>
       </c>
@@ -8364,10 +8364,10 @@
         <v>1224</v>
       </c>
       <c r="I148" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>1915</v>
       </c>
@@ -8390,10 +8390,10 @@
         <v>1225</v>
       </c>
       <c r="I149" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>1915</v>
       </c>
@@ -8416,10 +8416,10 @@
         <v>1226</v>
       </c>
       <c r="I150" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1915</v>
       </c>
@@ -8439,13 +8439,13 @@
         <v>1003</v>
       </c>
       <c r="H151" t="s">
-        <v>1303</v>
+        <v>1349</v>
       </c>
       <c r="I151" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>1915</v>
       </c>
@@ -8468,10 +8468,10 @@
         <v>1228</v>
       </c>
       <c r="I152" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>1915</v>
       </c>
@@ -8494,10 +8494,10 @@
         <v>1228</v>
       </c>
       <c r="I153" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>1915</v>
       </c>
@@ -8517,19 +8517,19 @@
         <v>890</v>
       </c>
       <c r="H154" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="I154" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="K154" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="L154" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>1915</v>
       </c>
@@ -8549,13 +8549,13 @@
         <v>1005</v>
       </c>
       <c r="H155" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="I155" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>1915</v>
       </c>
@@ -8575,13 +8575,13 @@
         <v>1006</v>
       </c>
       <c r="H156" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="I156" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1915</v>
       </c>
@@ -8604,10 +8604,10 @@
         <v>1229</v>
       </c>
       <c r="I157" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1915</v>
       </c>
@@ -8630,10 +8630,10 @@
         <v>1230</v>
       </c>
       <c r="I158" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1915</v>
       </c>
@@ -8656,10 +8656,10 @@
         <v>1230</v>
       </c>
       <c r="I159" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1915</v>
       </c>
@@ -8679,13 +8679,13 @@
         <v>890</v>
       </c>
       <c r="H160" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="I160" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1915</v>
       </c>
@@ -8705,13 +8705,13 @@
         <v>1009</v>
       </c>
       <c r="H161" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="I161" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>1915</v>
       </c>
@@ -8731,13 +8731,13 @@
         <v>890</v>
       </c>
       <c r="H162" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="I162" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1915</v>
       </c>
@@ -8760,10 +8760,10 @@
         <v>1231</v>
       </c>
       <c r="I163" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1915</v>
       </c>
@@ -8786,10 +8786,10 @@
         <v>1231</v>
       </c>
       <c r="I164" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1915</v>
       </c>
@@ -8809,13 +8809,13 @@
         <v>1012</v>
       </c>
       <c r="H165" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="I165" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1915</v>
       </c>
@@ -8835,13 +8835,13 @@
         <v>1013</v>
       </c>
       <c r="H166" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="I166" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1915</v>
       </c>
@@ -8861,13 +8861,13 @@
         <v>1014</v>
       </c>
       <c r="H167" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="I167" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1915</v>
       </c>
@@ -8887,13 +8887,13 @@
         <v>904</v>
       </c>
       <c r="H168" t="s">
-        <v>1307</v>
+        <v>1351</v>
       </c>
       <c r="I168" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1915</v>
       </c>
@@ -8916,10 +8916,10 @@
         <v>1232</v>
       </c>
       <c r="I169" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1915</v>
       </c>
@@ -8942,10 +8942,10 @@
         <v>1232</v>
       </c>
       <c r="I170" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1915</v>
       </c>
@@ -8968,10 +8968,10 @@
         <v>1232</v>
       </c>
       <c r="I171" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1915</v>
       </c>
@@ -8991,13 +8991,13 @@
         <v>1017</v>
       </c>
       <c r="H172" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="I172" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>1915</v>
       </c>
@@ -9017,13 +9017,13 @@
         <v>1018</v>
       </c>
       <c r="H173" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="I173" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1915</v>
       </c>
@@ -9043,13 +9043,13 @@
         <v>1019</v>
       </c>
       <c r="H174" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="I174" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1915</v>
       </c>
@@ -9069,13 +9069,13 @@
         <v>1020</v>
       </c>
       <c r="H175" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="I175" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1915</v>
       </c>
@@ -9095,13 +9095,13 @@
         <v>1021</v>
       </c>
       <c r="H176" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="I176" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1915</v>
       </c>
@@ -9121,13 +9121,13 @@
         <v>935</v>
       </c>
       <c r="H177" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="I177" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1915</v>
       </c>
@@ -9150,10 +9150,10 @@
         <v>1233</v>
       </c>
       <c r="I178" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1915</v>
       </c>
@@ -9176,10 +9176,10 @@
         <v>1233</v>
       </c>
       <c r="I179" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>1915</v>
       </c>
@@ -9202,10 +9202,10 @@
         <v>1233</v>
       </c>
       <c r="I180" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1915</v>
       </c>
@@ -9228,10 +9228,10 @@
         <v>1233</v>
       </c>
       <c r="I181" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1915</v>
       </c>
@@ -9254,10 +9254,10 @@
         <v>1233</v>
       </c>
       <c r="I182" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1915</v>
       </c>
@@ -9277,13 +9277,13 @@
         <v>1025</v>
       </c>
       <c r="H183" t="s">
-        <v>1310</v>
+        <v>1350</v>
       </c>
       <c r="I183" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1915</v>
       </c>
@@ -9303,13 +9303,13 @@
         <v>1002</v>
       </c>
       <c r="H184" t="s">
-        <v>1310</v>
+        <v>1350</v>
       </c>
       <c r="I184" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1915</v>
       </c>
@@ -9329,13 +9329,13 @@
         <v>1026</v>
       </c>
       <c r="H185" t="s">
-        <v>1310</v>
+        <v>1350</v>
       </c>
       <c r="I185" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>1915</v>
       </c>
@@ -9358,10 +9358,10 @@
         <v>1234</v>
       </c>
       <c r="I186" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>1915</v>
       </c>
@@ -9384,10 +9384,10 @@
         <v>1235</v>
       </c>
       <c r="I187" t="s">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1915</v>
       </c>
@@ -9410,10 +9410,10 @@
         <v>1235</v>
       </c>
       <c r="I188" t="s">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1915</v>
       </c>
@@ -9436,10 +9436,10 @@
         <v>1235</v>
       </c>
       <c r="I189" t="s">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1915</v>
       </c>
@@ -9462,10 +9462,10 @@
         <v>1235</v>
       </c>
       <c r="I190" t="s">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1915</v>
       </c>
@@ -9485,10 +9485,10 @@
         <v>1032</v>
       </c>
       <c r="H191" t="s">
-        <v>1348</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1915</v>
       </c>
@@ -9508,10 +9508,10 @@
         <v>1033</v>
       </c>
       <c r="H192" t="s">
-        <v>1348</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1915</v>
       </c>
@@ -9531,10 +9531,10 @@
         <v>1034</v>
       </c>
       <c r="H193" t="s">
-        <v>1348</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>1915</v>
       </c>
@@ -9554,10 +9554,10 @@
         <v>1035</v>
       </c>
       <c r="H194" t="s">
-        <v>1348</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1915</v>
       </c>
@@ -9577,13 +9577,13 @@
         <v>1036</v>
       </c>
       <c r="H195" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="I195" t="s">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>1915</v>
       </c>
@@ -9603,13 +9603,13 @@
         <v>953</v>
       </c>
       <c r="H196" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="I196" t="s">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1915</v>
       </c>
@@ -9629,13 +9629,13 @@
         <v>1037</v>
       </c>
       <c r="H197" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="I197" t="s">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1915</v>
       </c>
@@ -9655,13 +9655,13 @@
         <v>1038</v>
       </c>
       <c r="H198" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="I198" t="s">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>1915</v>
       </c>
@@ -9684,10 +9684,10 @@
         <v>1236</v>
       </c>
       <c r="I199" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>1915</v>
       </c>
@@ -9710,10 +9710,10 @@
         <v>1236</v>
       </c>
       <c r="I200" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1915</v>
       </c>
@@ -9736,10 +9736,10 @@
         <v>1236</v>
       </c>
       <c r="I201" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1915</v>
       </c>
@@ -9762,10 +9762,10 @@
         <v>1236</v>
       </c>
       <c r="I202" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>1915</v>
       </c>
@@ -9788,10 +9788,10 @@
         <v>1237</v>
       </c>
       <c r="I203" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>1915</v>
       </c>
@@ -9814,10 +9814,10 @@
         <v>1237</v>
       </c>
       <c r="I204" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>1915</v>
       </c>
@@ -9840,10 +9840,10 @@
         <v>1237</v>
       </c>
       <c r="I205" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1915</v>
       </c>
@@ -9866,13 +9866,13 @@
         <v>1238</v>
       </c>
       <c r="I206" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="J206" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>1915</v>
       </c>
@@ -9895,13 +9895,13 @@
         <v>1238</v>
       </c>
       <c r="I207" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="J207" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>1915</v>
       </c>
@@ -9924,13 +9924,13 @@
         <v>1238</v>
       </c>
       <c r="I208" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="J208" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1915</v>
       </c>
@@ -9953,13 +9953,13 @@
         <v>1238</v>
       </c>
       <c r="I209" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="J209" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1915</v>
       </c>
@@ -9982,10 +9982,10 @@
         <v>1239</v>
       </c>
       <c r="I210" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>1915</v>
       </c>
@@ -10008,10 +10008,10 @@
         <v>1239</v>
       </c>
       <c r="I211" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>1915</v>
       </c>
@@ -10034,10 +10034,10 @@
         <v>1239</v>
       </c>
       <c r="I212" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1915</v>
       </c>
@@ -10060,10 +10060,10 @@
         <v>1240</v>
       </c>
       <c r="I213" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>1915</v>
       </c>
@@ -10086,10 +10086,10 @@
         <v>1240</v>
       </c>
       <c r="I214" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>1915</v>
       </c>
@@ -10112,10 +10112,10 @@
         <v>1240</v>
       </c>
       <c r="I215" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>1915</v>
       </c>
@@ -10135,13 +10135,13 @@
         <v>1051</v>
       </c>
       <c r="H216" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="I216" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>1915</v>
       </c>
@@ -10164,10 +10164,10 @@
         <v>1240</v>
       </c>
       <c r="I217" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>1915</v>
       </c>
@@ -10187,13 +10187,13 @@
         <v>1053</v>
       </c>
       <c r="H218" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="I218" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>1915</v>
       </c>
@@ -10216,10 +10216,10 @@
         <v>1240</v>
       </c>
       <c r="I219" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>1915</v>
       </c>
@@ -10242,10 +10242,10 @@
         <v>1241</v>
       </c>
       <c r="I220" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1915</v>
       </c>
@@ -10268,10 +10268,10 @@
         <v>1241</v>
       </c>
       <c r="I221" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1915</v>
       </c>
@@ -10294,10 +10294,10 @@
         <v>1241</v>
       </c>
       <c r="I222" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>1915</v>
       </c>
@@ -10320,10 +10320,10 @@
         <v>1241</v>
       </c>
       <c r="I223" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>1915</v>
       </c>
@@ -10346,10 +10346,10 @@
         <v>1241</v>
       </c>
       <c r="I224" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1915</v>
       </c>
@@ -10372,10 +10372,10 @@
         <v>1242</v>
       </c>
       <c r="I225" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>1915</v>
       </c>
@@ -10398,10 +10398,10 @@
         <v>1242</v>
       </c>
       <c r="I226" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1915</v>
       </c>
@@ -10424,10 +10424,10 @@
         <v>1243</v>
       </c>
       <c r="I227" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1915</v>
       </c>
@@ -10450,10 +10450,10 @@
         <v>1243</v>
       </c>
       <c r="I228" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>1915</v>
       </c>
@@ -10476,10 +10476,10 @@
         <v>1244</v>
       </c>
       <c r="I229" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>1915</v>
       </c>
@@ -10502,10 +10502,10 @@
         <v>1244</v>
       </c>
       <c r="I230" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1915</v>
       </c>
@@ -10528,10 +10528,10 @@
         <v>1244</v>
       </c>
       <c r="I231" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1915</v>
       </c>
@@ -10554,10 +10554,10 @@
         <v>1245</v>
       </c>
       <c r="I232" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>1915</v>
       </c>
@@ -10580,10 +10580,10 @@
         <v>1243</v>
       </c>
       <c r="I233" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>1915</v>
       </c>
@@ -10606,10 +10606,10 @@
         <v>1243</v>
       </c>
       <c r="I234" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1915</v>
       </c>
@@ -10632,10 +10632,10 @@
         <v>1191</v>
       </c>
       <c r="I235" t="s">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1915</v>
       </c>
@@ -10658,10 +10658,10 @@
         <v>1191</v>
       </c>
       <c r="I236" t="s">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>1915</v>
       </c>
@@ -10684,10 +10684,10 @@
         <v>1243</v>
       </c>
       <c r="I237" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>1915</v>
       </c>
@@ -10710,10 +10710,10 @@
         <v>1245</v>
       </c>
       <c r="I238" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1915</v>
       </c>
@@ -10733,16 +10733,16 @@
         <v>1069</v>
       </c>
       <c r="H239" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="I239" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="J239" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>1915</v>
       </c>
@@ -10762,16 +10762,16 @@
         <v>1070</v>
       </c>
       <c r="H240" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="I240" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="J240" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>1915</v>
       </c>
@@ -10791,13 +10791,13 @@
         <v>1071</v>
       </c>
       <c r="H241" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="I241" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>1915</v>
       </c>
@@ -10817,13 +10817,13 @@
         <v>1072</v>
       </c>
       <c r="H242" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="I242" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>1915</v>
       </c>
@@ -10846,10 +10846,10 @@
         <v>1191</v>
       </c>
       <c r="I243" t="s">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>1915</v>
       </c>
@@ -10869,16 +10869,16 @@
         <v>1074</v>
       </c>
       <c r="H244" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="I244" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="J244" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>1915</v>
       </c>
@@ -10901,10 +10901,10 @@
         <v>1243</v>
       </c>
       <c r="I245" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>1915</v>
       </c>
@@ -10927,10 +10927,10 @@
         <v>1246</v>
       </c>
       <c r="I246" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>1915</v>
       </c>
@@ -10953,10 +10953,10 @@
         <v>1247</v>
       </c>
       <c r="I247" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>1915</v>
       </c>
@@ -10979,10 +10979,10 @@
         <v>1247</v>
       </c>
       <c r="I248" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>1915</v>
       </c>
@@ -11005,10 +11005,10 @@
         <v>1247</v>
       </c>
       <c r="I249" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1915</v>
       </c>
@@ -11031,10 +11031,10 @@
         <v>1247</v>
       </c>
       <c r="I250" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>1915</v>
       </c>
@@ -11057,10 +11057,10 @@
         <v>1247</v>
       </c>
       <c r="I251" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>1915</v>
       </c>
@@ -11083,10 +11083,10 @@
         <v>1186</v>
       </c>
       <c r="I252" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1915</v>
       </c>
@@ -11109,10 +11109,10 @@
         <v>1248</v>
       </c>
       <c r="I253" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>1915</v>
       </c>
@@ -11135,10 +11135,10 @@
         <v>1248</v>
       </c>
       <c r="I254" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>1915</v>
       </c>
@@ -11161,10 +11161,10 @@
         <v>1248</v>
       </c>
       <c r="I255" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>1915</v>
       </c>
@@ -11184,13 +11184,13 @@
         <v>904</v>
       </c>
       <c r="H256" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="I256" t="s">
-        <v>1349</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>1915</v>
       </c>
@@ -11213,10 +11213,10 @@
         <v>1249</v>
       </c>
       <c r="I257" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>1915</v>
       </c>
@@ -11239,10 +11239,10 @@
         <v>1249</v>
       </c>
       <c r="I258" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>1915</v>
       </c>
@@ -11262,13 +11262,13 @@
         <v>1084</v>
       </c>
       <c r="H259" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="I259" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>1915</v>
       </c>
@@ -11288,13 +11288,13 @@
         <v>1054</v>
       </c>
       <c r="H260" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="I260" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1915</v>
       </c>
@@ -11317,10 +11317,10 @@
         <v>1248</v>
       </c>
       <c r="I261" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>1915</v>
       </c>
@@ -11340,13 +11340,13 @@
         <v>958</v>
       </c>
       <c r="H262" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="I262" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>1915</v>
       </c>
@@ -11366,13 +11366,13 @@
         <v>1086</v>
       </c>
       <c r="H263" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="I263" t="s">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>1915</v>
       </c>
@@ -11395,10 +11395,10 @@
         <v>1250</v>
       </c>
       <c r="I264" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>1915</v>
       </c>
@@ -11421,10 +11421,10 @@
         <v>1250</v>
       </c>
       <c r="I265" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>1915</v>
       </c>
@@ -11447,10 +11447,10 @@
         <v>1251</v>
       </c>
       <c r="I266" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>1915</v>
       </c>
@@ -11470,13 +11470,13 @@
         <v>1088</v>
       </c>
       <c r="H267" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="I267" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>1915</v>
       </c>
@@ -11499,10 +11499,10 @@
         <v>1250</v>
       </c>
       <c r="I268" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>1915</v>
       </c>
@@ -11525,10 +11525,10 @@
         <v>1248</v>
       </c>
       <c r="I269" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>1915</v>
       </c>
@@ -11548,13 +11548,13 @@
         <v>1091</v>
       </c>
       <c r="H270" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="I270" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>1915</v>
       </c>
@@ -11574,13 +11574,13 @@
         <v>909</v>
       </c>
       <c r="H271" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="I271" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>1915</v>
       </c>
@@ -11603,10 +11603,10 @@
         <v>1203</v>
       </c>
       <c r="I272" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>1915</v>
       </c>
@@ -11629,10 +11629,10 @@
         <v>1203</v>
       </c>
       <c r="I273" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>1915</v>
       </c>
@@ -11655,10 +11655,10 @@
         <v>1203</v>
       </c>
       <c r="I274" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>1915</v>
       </c>
@@ -11678,13 +11678,13 @@
         <v>1094</v>
       </c>
       <c r="H275" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="I275" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>1915</v>
       </c>
@@ -11704,13 +11704,13 @@
         <v>1095</v>
       </c>
       <c r="H276" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="I276" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>1915</v>
       </c>
@@ -11730,13 +11730,13 @@
         <v>894</v>
       </c>
       <c r="H277" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="I277" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>1915</v>
       </c>
@@ -11756,13 +11756,13 @@
         <v>1096</v>
       </c>
       <c r="H278" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="I278" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>1915</v>
       </c>
@@ -11782,13 +11782,13 @@
         <v>1023</v>
       </c>
       <c r="H279" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="I279" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>1915</v>
       </c>
@@ -11811,10 +11811,10 @@
         <v>1252</v>
       </c>
       <c r="I280" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>1915</v>
       </c>
@@ -11837,10 +11837,10 @@
         <v>1252</v>
       </c>
       <c r="I281" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>1915</v>
       </c>
@@ -11866,10 +11866,10 @@
         <v>1252</v>
       </c>
       <c r="I282" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>1915</v>
       </c>
@@ -11889,13 +11889,13 @@
         <v>1098</v>
       </c>
       <c r="H283" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="I283" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>1915</v>
       </c>
@@ -11915,13 +11915,13 @@
         <v>1099</v>
       </c>
       <c r="H284" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="I284" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>1915</v>
       </c>
@@ -11941,13 +11941,13 @@
         <v>947</v>
       </c>
       <c r="H285" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="I285" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>1915</v>
       </c>
@@ -11967,13 +11967,13 @@
         <v>892</v>
       </c>
       <c r="H286" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="I286" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>1915</v>
       </c>
@@ -11996,10 +11996,10 @@
         <v>1253</v>
       </c>
       <c r="I287" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>1915</v>
       </c>
@@ -12022,10 +12022,10 @@
         <v>1203</v>
       </c>
       <c r="I288" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>1915</v>
       </c>
@@ -12048,10 +12048,10 @@
         <v>1203</v>
       </c>
       <c r="I289" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>1915</v>
       </c>
@@ -12071,13 +12071,13 @@
         <v>1102</v>
       </c>
       <c r="H290" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="I290" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>1915</v>
       </c>
@@ -12097,13 +12097,13 @@
         <v>1103</v>
       </c>
       <c r="H291" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="I291" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>1915</v>
       </c>
@@ -12123,13 +12123,13 @@
         <v>994</v>
       </c>
       <c r="H292" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="I292" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>1915</v>
       </c>
@@ -12152,10 +12152,10 @@
         <v>1252</v>
       </c>
       <c r="I293" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>1915</v>
       </c>
@@ -12178,10 +12178,10 @@
         <v>1254</v>
       </c>
       <c r="I294" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>1915</v>
       </c>
@@ -12207,10 +12207,10 @@
         <v>1254</v>
       </c>
       <c r="I295" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>1915</v>
       </c>
@@ -12236,10 +12236,10 @@
         <v>1254</v>
       </c>
       <c r="I296" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>1915</v>
       </c>
@@ -12262,10 +12262,10 @@
         <v>1254</v>
       </c>
       <c r="I297" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>1915</v>
       </c>
@@ -12288,10 +12288,10 @@
         <v>1254</v>
       </c>
       <c r="I298" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>1915</v>
       </c>
@@ -12314,10 +12314,10 @@
         <v>1254</v>
       </c>
       <c r="I299" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>1915</v>
       </c>
@@ -12340,10 +12340,10 @@
         <v>1255</v>
       </c>
       <c r="I300" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>1915</v>
       </c>
@@ -12366,10 +12366,10 @@
         <v>1255</v>
       </c>
       <c r="I301" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>1915</v>
       </c>
@@ -12392,10 +12392,10 @@
         <v>1255</v>
       </c>
       <c r="I302" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>1915</v>
       </c>
@@ -12418,10 +12418,10 @@
         <v>1256</v>
       </c>
       <c r="I303" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>1915</v>
       </c>
@@ -12444,10 +12444,10 @@
         <v>1257</v>
       </c>
       <c r="I304" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>1915</v>
       </c>
@@ -12470,10 +12470,10 @@
         <v>1257</v>
       </c>
       <c r="I305" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>1915</v>
       </c>
@@ -12496,10 +12496,10 @@
         <v>1258</v>
       </c>
       <c r="I306" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>1915</v>
       </c>
@@ -12522,10 +12522,10 @@
         <v>1258</v>
       </c>
       <c r="I307" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>1915</v>
       </c>
@@ -12548,10 +12548,10 @@
         <v>1257</v>
       </c>
       <c r="I308" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>1915</v>
       </c>
@@ -12574,10 +12574,10 @@
         <v>1209</v>
       </c>
       <c r="I309" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>1915</v>
       </c>
@@ -12600,10 +12600,10 @@
         <v>1259</v>
       </c>
       <c r="I310" t="s">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>1915</v>
       </c>
@@ -12626,10 +12626,10 @@
         <v>1259</v>
       </c>
       <c r="I311" t="s">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>1915</v>
       </c>
@@ -12652,10 +12652,10 @@
         <v>1255</v>
       </c>
       <c r="I312" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>1915</v>
       </c>
@@ -12678,10 +12678,10 @@
         <v>1257</v>
       </c>
       <c r="I313" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>1915</v>
       </c>
@@ -12704,10 +12704,10 @@
         <v>1260</v>
       </c>
       <c r="I314" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>1915</v>
       </c>
@@ -12727,13 +12727,13 @@
         <v>1117</v>
       </c>
       <c r="H315" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="I315" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>1915</v>
       </c>
@@ -12753,13 +12753,13 @@
         <v>1000</v>
       </c>
       <c r="H316" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="I316" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>1915</v>
       </c>
@@ -12782,10 +12782,10 @@
         <v>1260</v>
       </c>
       <c r="I317" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>1915</v>
       </c>
@@ -12808,10 +12808,10 @@
         <v>1260</v>
       </c>
       <c r="I318" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>1915</v>
       </c>
@@ -12834,10 +12834,10 @@
         <v>1261</v>
       </c>
       <c r="I319" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>1915</v>
       </c>
@@ -12860,10 +12860,10 @@
         <v>1261</v>
       </c>
       <c r="I320" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>1915</v>
       </c>
@@ -12883,13 +12883,13 @@
         <v>1120</v>
       </c>
       <c r="H321" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="I321" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>1915</v>
       </c>
@@ -12909,13 +12909,13 @@
         <v>1121</v>
       </c>
       <c r="H322" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="I322" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>1915</v>
       </c>
@@ -12938,13 +12938,13 @@
         <v>1032</v>
       </c>
       <c r="H323" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="I323" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>1915</v>
       </c>
@@ -12967,10 +12967,10 @@
         <v>1262</v>
       </c>
       <c r="I324" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>1915</v>
       </c>
@@ -12993,10 +12993,10 @@
         <v>1263</v>
       </c>
       <c r="I325" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>1915</v>
       </c>
@@ -13016,13 +13016,13 @@
         <v>912</v>
       </c>
       <c r="H326" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="I326" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>1915</v>
       </c>
@@ -13042,13 +13042,13 @@
         <v>1123</v>
       </c>
       <c r="H327" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="I327" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>1915</v>
       </c>
@@ -13071,10 +13071,10 @@
         <v>1260</v>
       </c>
       <c r="I328" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>1915</v>
       </c>
@@ -13094,13 +13094,13 @@
         <v>1125</v>
       </c>
       <c r="H329" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="I329" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>1915</v>
       </c>
@@ -13123,10 +13123,10 @@
         <v>1263</v>
       </c>
       <c r="I330" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>1915</v>
       </c>
@@ -13149,10 +13149,10 @@
         <v>1227</v>
       </c>
       <c r="I331" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>1915</v>
       </c>
@@ -13175,10 +13175,10 @@
         <v>1250</v>
       </c>
       <c r="I332" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>1915</v>
       </c>
@@ -13201,10 +13201,10 @@
         <v>1250</v>
       </c>
       <c r="I333" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>1915</v>
       </c>
@@ -13224,13 +13224,13 @@
         <v>1128</v>
       </c>
       <c r="H334" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="I334" t="s">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>1915</v>
       </c>
@@ -13250,13 +13250,13 @@
         <v>1081</v>
       </c>
       <c r="H335" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="I335" t="s">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>1915</v>
       </c>
@@ -13279,10 +13279,10 @@
         <v>1227</v>
       </c>
       <c r="I336" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>1915</v>
       </c>
@@ -13305,10 +13305,10 @@
         <v>1264</v>
       </c>
       <c r="I337" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>1915</v>
       </c>
@@ -13334,10 +13334,10 @@
         <v>1264</v>
       </c>
       <c r="I338" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>1915</v>
       </c>
@@ -13360,10 +13360,10 @@
         <v>1265</v>
       </c>
       <c r="I339" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>1915</v>
       </c>
@@ -13386,10 +13386,10 @@
         <v>1265</v>
       </c>
       <c r="I340" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>1915</v>
       </c>
@@ -13412,10 +13412,10 @@
         <v>1265</v>
       </c>
       <c r="I341" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>1915</v>
       </c>
@@ -13438,10 +13438,10 @@
         <v>1266</v>
       </c>
       <c r="I342" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>1915</v>
       </c>
@@ -13464,10 +13464,10 @@
         <v>1267</v>
       </c>
       <c r="I343" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>1915</v>
       </c>
@@ -13490,10 +13490,10 @@
         <v>1267</v>
       </c>
       <c r="I344" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>1915</v>
       </c>
@@ -13516,10 +13516,10 @@
         <v>1268</v>
       </c>
       <c r="I345" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>1915</v>
       </c>
@@ -13542,10 +13542,10 @@
         <v>1268</v>
       </c>
       <c r="I346" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>1915</v>
       </c>
@@ -13568,10 +13568,10 @@
         <v>1269</v>
       </c>
       <c r="I347" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>1915</v>
       </c>
@@ -13594,10 +13594,10 @@
         <v>1270</v>
       </c>
       <c r="I348" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>1915</v>
       </c>
@@ -13620,10 +13620,10 @@
         <v>1270</v>
       </c>
       <c r="I349" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>1915</v>
       </c>
@@ -13646,10 +13646,10 @@
         <v>1270</v>
       </c>
       <c r="I350" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>1915</v>
       </c>
@@ -13672,10 +13672,10 @@
         <v>1270</v>
       </c>
       <c r="I351" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>1915</v>
       </c>
@@ -13698,10 +13698,10 @@
         <v>1271</v>
       </c>
       <c r="I352" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>1915</v>
       </c>
@@ -13724,10 +13724,10 @@
         <v>1271</v>
       </c>
       <c r="I353" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>1915</v>
       </c>
@@ -13750,10 +13750,10 @@
         <v>1271</v>
       </c>
       <c r="I354" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>1915</v>
       </c>
@@ -13776,10 +13776,10 @@
         <v>1272</v>
       </c>
       <c r="I355" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>1915</v>
       </c>
@@ -13802,10 +13802,10 @@
         <v>1272</v>
       </c>
       <c r="I356" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>1915</v>
       </c>
@@ -13831,10 +13831,10 @@
         <v>1273</v>
       </c>
       <c r="I357" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>1915</v>
       </c>
@@ -13860,10 +13860,10 @@
         <v>1273</v>
       </c>
       <c r="I358" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>1915</v>
       </c>
@@ -13889,10 +13889,10 @@
         <v>1273</v>
       </c>
       <c r="I359" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>1915</v>
       </c>
@@ -13918,10 +13918,10 @@
         <v>1273</v>
       </c>
       <c r="I360" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>1915</v>
       </c>
@@ -13944,10 +13944,10 @@
         <v>1273</v>
       </c>
       <c r="I361" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>1915</v>
       </c>
@@ -13970,10 +13970,10 @@
         <v>1273</v>
       </c>
       <c r="I362" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>1915</v>
       </c>
@@ -13996,10 +13996,10 @@
         <v>1274</v>
       </c>
       <c r="I363" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>1915</v>
       </c>
@@ -14022,10 +14022,10 @@
         <v>1274</v>
       </c>
       <c r="I364" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>1915</v>
       </c>
@@ -14048,10 +14048,10 @@
         <v>1275</v>
       </c>
       <c r="I365" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>1915</v>
       </c>
@@ -14074,10 +14074,10 @@
         <v>1275</v>
       </c>
       <c r="I366" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>1915</v>
       </c>
@@ -14100,10 +14100,10 @@
         <v>1275</v>
       </c>
       <c r="I367" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>1915</v>
       </c>
@@ -14126,10 +14126,10 @@
         <v>1276</v>
       </c>
       <c r="I368" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>1915</v>
       </c>
@@ -14152,10 +14152,10 @@
         <v>1276</v>
       </c>
       <c r="I369" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>1915</v>
       </c>
@@ -14181,10 +14181,10 @@
         <v>1277</v>
       </c>
       <c r="I370" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>1915</v>
       </c>
@@ -14207,10 +14207,10 @@
         <v>1277</v>
       </c>
       <c r="I371" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>1915</v>
       </c>
@@ -14233,10 +14233,10 @@
         <v>1277</v>
       </c>
       <c r="I372" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>1915</v>
       </c>
@@ -14259,10 +14259,10 @@
         <v>1277</v>
       </c>
       <c r="I373" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>1915</v>
       </c>
@@ -14285,10 +14285,10 @@
         <v>1278</v>
       </c>
       <c r="I374" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>1915</v>
       </c>
@@ -14311,10 +14311,10 @@
         <v>1278</v>
       </c>
       <c r="I375" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>1915</v>
       </c>
@@ -14337,10 +14337,10 @@
         <v>1278</v>
       </c>
       <c r="I376" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>1915</v>
       </c>
@@ -14363,10 +14363,10 @@
         <v>1278</v>
       </c>
       <c r="I377" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>1915</v>
       </c>
@@ -14389,10 +14389,10 @@
         <v>1278</v>
       </c>
       <c r="I378" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>1915</v>
       </c>
@@ -14415,10 +14415,10 @@
         <v>1278</v>
       </c>
       <c r="I379" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>1915</v>
       </c>
@@ -14441,10 +14441,10 @@
         <v>1278</v>
       </c>
       <c r="I380" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>1915</v>
       </c>
@@ -14467,10 +14467,10 @@
         <v>1278</v>
       </c>
       <c r="I381" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>1915</v>
       </c>
@@ -14493,13 +14493,13 @@
         <v>1279</v>
       </c>
       <c r="I382" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="J382" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>1915</v>
       </c>
@@ -14522,13 +14522,13 @@
         <v>1279</v>
       </c>
       <c r="I383" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="J383" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>1915</v>
       </c>
@@ -14551,13 +14551,13 @@
         <v>1279</v>
       </c>
       <c r="I384" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="J384" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>1915</v>
       </c>
@@ -14580,13 +14580,13 @@
         <v>1279</v>
       </c>
       <c r="I385" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="J385" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>1915</v>
       </c>
@@ -14609,10 +14609,10 @@
         <v>1280</v>
       </c>
       <c r="I386" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>1915</v>
       </c>
@@ -14635,10 +14635,10 @@
         <v>1280</v>
       </c>
       <c r="I387" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>1915</v>
       </c>
@@ -14661,10 +14661,10 @@
         <v>1281</v>
       </c>
       <c r="I388" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>1915</v>
       </c>
@@ -14687,10 +14687,10 @@
         <v>1281</v>
       </c>
       <c r="I389" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>1915</v>
       </c>
@@ -14713,10 +14713,10 @@
         <v>1282</v>
       </c>
       <c r="I390" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="391" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>1915</v>
       </c>
@@ -14739,10 +14739,10 @@
         <v>1282</v>
       </c>
       <c r="I391" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>1915</v>
       </c>
@@ -14768,10 +14768,10 @@
         <v>1283</v>
       </c>
       <c r="I392" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>1915</v>
       </c>
@@ -14797,10 +14797,10 @@
         <v>1283</v>
       </c>
       <c r="I393" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="394" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>1915</v>
       </c>
@@ -14826,10 +14826,10 @@
         <v>1283</v>
       </c>
       <c r="I394" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>1915</v>
       </c>
@@ -14855,10 +14855,10 @@
         <v>1283</v>
       </c>
       <c r="I395" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>1915</v>
       </c>
@@ -14884,10 +14884,10 @@
         <v>1283</v>
       </c>
       <c r="I396" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>1915</v>
       </c>
@@ -14913,10 +14913,10 @@
         <v>1284</v>
       </c>
       <c r="I397" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>1915</v>
       </c>
@@ -14942,10 +14942,10 @@
         <v>1284</v>
       </c>
       <c r="I398" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="399" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>1915</v>
       </c>
@@ -14971,10 +14971,10 @@
         <v>1284</v>
       </c>
       <c r="I399" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>1915</v>
       </c>
@@ -15000,10 +15000,10 @@
         <v>1284</v>
       </c>
       <c r="I400" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="401" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>1915</v>
       </c>
@@ -15026,10 +15026,10 @@
         <v>1285</v>
       </c>
       <c r="I401" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="402" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>1915</v>
       </c>
@@ -15052,10 +15052,10 @@
         <v>1285</v>
       </c>
       <c r="I402" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="403" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>1915</v>
       </c>
@@ -15078,10 +15078,10 @@
         <v>1202</v>
       </c>
       <c r="I403" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="404" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>1915</v>
       </c>
@@ -15104,10 +15104,10 @@
         <v>1202</v>
       </c>
       <c r="I404" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="405" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>1915</v>
       </c>
@@ -15130,10 +15130,10 @@
         <v>1202</v>
       </c>
       <c r="I405" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="406" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>1915</v>
       </c>
@@ -15156,10 +15156,10 @@
         <v>1202</v>
       </c>
       <c r="I406" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="407" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>1915</v>
       </c>
@@ -15182,16 +15182,16 @@
         <v>1202</v>
       </c>
       <c r="I407" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="K407" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="L407" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="408" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>1915</v>
       </c>
@@ -15211,13 +15211,13 @@
         <v>904</v>
       </c>
       <c r="H408" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="I408" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="409" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>1915</v>
       </c>
@@ -15237,13 +15237,13 @@
         <v>1167</v>
       </c>
       <c r="H409" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="I409" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="410" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>1915</v>
       </c>
@@ -15263,13 +15263,13 @@
         <v>1168</v>
       </c>
       <c r="H410" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="I410" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="411" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>1915</v>
       </c>
@@ -15289,13 +15289,13 @@
         <v>1169</v>
       </c>
       <c r="H411" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="I411" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="412" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>1915</v>
       </c>
@@ -15315,13 +15315,13 @@
         <v>1170</v>
       </c>
       <c r="H412" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="I412" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="413" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>1915</v>
       </c>
@@ -15341,13 +15341,13 @@
         <v>1171</v>
       </c>
       <c r="H413" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="I413" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="414" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>1915</v>
       </c>
@@ -15370,10 +15370,10 @@
         <v>1286</v>
       </c>
       <c r="I414" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="415" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>1915</v>
       </c>
@@ -15396,10 +15396,10 @@
         <v>1286</v>
       </c>
       <c r="I415" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="416" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>1915</v>
       </c>
@@ -15422,10 +15422,10 @@
         <v>1286</v>
       </c>
       <c r="I416" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>1915</v>
       </c>
@@ -15448,10 +15448,10 @@
         <v>1286</v>
       </c>
       <c r="I417" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>1915</v>
       </c>
@@ -15474,10 +15474,10 @@
         <v>1286</v>
       </c>
       <c r="I418" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>1915</v>
       </c>
@@ -15500,10 +15500,10 @@
         <v>1286</v>
       </c>
       <c r="I419" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>1915</v>
       </c>
@@ -15526,10 +15526,10 @@
         <v>1287</v>
       </c>
       <c r="I420" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>1915</v>
       </c>
@@ -15552,10 +15552,10 @@
         <v>1288</v>
       </c>
       <c r="I421" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>1915</v>
       </c>
@@ -15578,10 +15578,10 @@
         <v>1289</v>
       </c>
       <c r="I422" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>1915</v>
       </c>
@@ -15607,10 +15607,10 @@
         <v>1290</v>
       </c>
       <c r="I423" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>1915</v>
       </c>
@@ -15633,10 +15633,10 @@
         <v>1290</v>
       </c>
       <c r="I424" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>1915</v>
       </c>
@@ -15659,10 +15659,10 @@
         <v>1290</v>
       </c>
       <c r="I425" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>1915</v>
       </c>
@@ -15685,10 +15685,10 @@
         <v>1290</v>
       </c>
       <c r="I426" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>1915</v>
       </c>
@@ -15711,10 +15711,10 @@
         <v>1291</v>
       </c>
       <c r="I427" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>1915</v>
       </c>
@@ -15737,10 +15737,10 @@
         <v>1291</v>
       </c>
       <c r="I428" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>1915</v>
       </c>
@@ -15763,10 +15763,10 @@
         <v>1291</v>
       </c>
       <c r="I429" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>1915</v>
       </c>
@@ -15789,10 +15789,10 @@
         <v>1292</v>
       </c>
       <c r="I430" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>1915</v>
       </c>
@@ -15815,10 +15815,10 @@
         <v>1292</v>
       </c>
       <c r="I431" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="432" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>1915</v>
       </c>
@@ -15841,10 +15841,10 @@
         <v>1293</v>
       </c>
       <c r="I432" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>1915</v>
       </c>
@@ -15867,10 +15867,10 @@
         <v>1294</v>
       </c>
       <c r="I433" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="434" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>1915</v>
       </c>
@@ -15893,10 +15893,10 @@
         <v>1294</v>
       </c>
       <c r="I434" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="435" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>1915</v>
       </c>
@@ -15919,10 +15919,10 @@
         <v>1295</v>
       </c>
       <c r="I435" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="436" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>1915</v>
       </c>
@@ -15945,10 +15945,10 @@
         <v>1295</v>
       </c>
       <c r="I436" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="437" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>1915</v>
       </c>
@@ -15971,10 +15971,10 @@
         <v>1296</v>
       </c>
       <c r="I437" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="438" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>1915</v>
       </c>
@@ -15997,10 +15997,10 @@
         <v>1296</v>
       </c>
       <c r="I438" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="439" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>1915</v>
       </c>
@@ -16023,10 +16023,10 @@
         <v>1296</v>
       </c>
       <c r="I439" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="440" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>1915</v>
       </c>
@@ -16049,10 +16049,10 @@
         <v>1296</v>
       </c>
       <c r="I440" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="441" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>1915</v>
       </c>
@@ -16075,7 +16075,7 @@
         <v>1296</v>
       </c>
       <c r="I441" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
     </row>
   </sheetData>

--- a/data-migration/xlsx_1900-/1915_Winter.xlsx
+++ b/data-migration/xlsx_1900-/1915_Winter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\TEMP_REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8041B73-7D7F-49E7-A08D-54ACF33CE16F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DAC0D52-B15D-460E-8801-C8E48FDD8410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2122,9 +2122,6 @@
     <t>Einführung in die Unterrichtspraxis der Sekundarschule: Fächer der mathematisch-naturwissenschaftlichen Richtung: Schulbesuche und Probelektionen</t>
   </si>
   <si>
-    <t>Syrisch, 11. Kurs</t>
-  </si>
-  <si>
     <t>Die Indogermanen, ihre Verbreitung, Herkunft, älteste Kultur</t>
   </si>
   <si>
@@ -3643,9 +3640,6 @@
     <t>amberg_e</t>
   </si>
   <si>
-    <t>steiner_h</t>
-  </si>
-  <si>
     <t>wettstein_o</t>
   </si>
   <si>
@@ -3676,9 +3670,6 @@
     <t>oswald_a</t>
   </si>
   <si>
-    <t>roth_o</t>
-  </si>
-  <si>
     <t>steiger_o</t>
   </si>
   <si>
@@ -3898,9 +3889,6 @@
     <t>strohl_j</t>
   </si>
   <si>
-    <t>standfuss_m</t>
-  </si>
-  <si>
     <t>tschulok_s</t>
   </si>
   <si>
@@ -3931,9 +3919,6 @@
     <t>fick_age</t>
   </si>
   <si>
-    <t>meyerrueegg_h</t>
-  </si>
-  <si>
     <t>meyerwirz_e</t>
   </si>
   <si>
@@ -3988,27 +3973,18 @@
     <t>meyer_a</t>
   </si>
   <si>
-    <t>vonschulthessrechberg_g</t>
-  </si>
-  <si>
     <t>bachmann_g</t>
   </si>
   <si>
     <t>frey_h</t>
   </si>
   <si>
-    <t>frey_j</t>
-  </si>
-  <si>
     <t>mueller_h2</t>
   </si>
   <si>
     <t>schulthess_w</t>
   </si>
   <si>
-    <t>vonmonakow_p</t>
-  </si>
-  <si>
     <t>heusser_h</t>
   </si>
   <si>
@@ -4076,6 +4052,30 @@
   </si>
   <si>
     <t>anderes_e</t>
+  </si>
+  <si>
+    <t>frey_j2</t>
+  </si>
+  <si>
+    <t>Syrisch, II. Kurs</t>
+  </si>
+  <si>
+    <t>meyer-rueegg_h</t>
+  </si>
+  <si>
+    <t>monakow_c</t>
+  </si>
+  <si>
+    <t>schulthess_rg</t>
+  </si>
+  <si>
+    <t>steiner_h2</t>
+  </si>
+  <si>
+    <t>roth_o2</t>
+  </si>
+  <si>
+    <t>standfuss_mr</t>
   </si>
 </sst>
 </file>
@@ -4117,11 +4117,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4425,11 +4428,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E156" workbookViewId="0">
-      <selection activeCell="H168" sqref="H168"/>
+    <sheetView tabSelected="1" topLeftCell="A414" workbookViewId="0">
+      <selection activeCell="I431" sqref="I431"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="27.109375" customWidth="1"/>
     <col min="8" max="8" width="24.33203125" customWidth="1"/>
@@ -4452,13 +4455,13 @@
         <v>450</v>
       </c>
       <c r="G1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H1" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="I1" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -4478,13 +4481,13 @@
         <v>451</v>
       </c>
       <c r="G2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H2" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="I2" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -4504,13 +4507,13 @@
         <v>452</v>
       </c>
       <c r="G3" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H3" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="I3" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -4530,13 +4533,13 @@
         <v>453</v>
       </c>
       <c r="G4" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H4" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="I4" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -4556,13 +4559,13 @@
         <v>454</v>
       </c>
       <c r="G5" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H5" t="s">
-        <v>1320</v>
+        <v>1315</v>
       </c>
       <c r="I5" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -4582,13 +4585,13 @@
         <v>455</v>
       </c>
       <c r="G6" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H6" t="s">
-        <v>1320</v>
+        <v>1315</v>
       </c>
       <c r="I6" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -4608,13 +4611,13 @@
         <v>456</v>
       </c>
       <c r="G7" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H7" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="I7" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -4634,13 +4637,13 @@
         <v>457</v>
       </c>
       <c r="G8" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H8" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="I8" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -4660,13 +4663,13 @@
         <v>458</v>
       </c>
       <c r="G9" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H9" t="s">
-        <v>1321</v>
+        <v>1316</v>
       </c>
       <c r="I9" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -4686,13 +4689,13 @@
         <v>459</v>
       </c>
       <c r="G10" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H10" t="s">
-        <v>1321</v>
+        <v>1316</v>
       </c>
       <c r="I10" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -4712,13 +4715,13 @@
         <v>460</v>
       </c>
       <c r="G11" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H11" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="I11" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -4738,13 +4741,13 @@
         <v>461</v>
       </c>
       <c r="G12" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H12" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="I12" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -4764,13 +4767,13 @@
         <v>462</v>
       </c>
       <c r="G13" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H13" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="I13" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -4790,13 +4793,13 @@
         <v>463</v>
       </c>
       <c r="G14" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H14" t="s">
-        <v>1322</v>
+        <v>1348</v>
       </c>
       <c r="I14" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -4816,13 +4819,13 @@
         <v>464</v>
       </c>
       <c r="G15" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H15" t="s">
-        <v>1322</v>
+        <v>1348</v>
       </c>
       <c r="I15" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -4842,13 +4845,13 @@
         <v>465</v>
       </c>
       <c r="G16" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H16" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="I16" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -4868,16 +4871,16 @@
         <v>466</v>
       </c>
       <c r="G17" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H17" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="I17" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
       <c r="J17" t="s">
-        <v>1337</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -4897,13 +4900,13 @@
         <v>467</v>
       </c>
       <c r="G18" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H18" t="s">
-        <v>1322</v>
+        <v>1348</v>
       </c>
       <c r="I18" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -4923,13 +4926,13 @@
         <v>468</v>
       </c>
       <c r="G19" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H19" t="s">
-        <v>1321</v>
+        <v>1316</v>
       </c>
       <c r="I19" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -4949,16 +4952,16 @@
         <v>469</v>
       </c>
       <c r="G20" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H20" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="I20" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
       <c r="J20" t="s">
-        <v>1337</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -4978,13 +4981,13 @@
         <v>470</v>
       </c>
       <c r="G21" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H21" t="s">
-        <v>1321</v>
+        <v>1316</v>
       </c>
       <c r="I21" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -5004,13 +5007,13 @@
         <v>471</v>
       </c>
       <c r="G22" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H22" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="I22" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -5030,13 +5033,13 @@
         <v>472</v>
       </c>
       <c r="G23" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H23" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="I23" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -5056,13 +5059,13 @@
         <v>473</v>
       </c>
       <c r="G24" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H24" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="I24" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -5082,13 +5085,13 @@
         <v>474</v>
       </c>
       <c r="G25" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H25" t="s">
-        <v>1321</v>
+        <v>1316</v>
       </c>
       <c r="I25" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -5108,13 +5111,13 @@
         <v>475</v>
       </c>
       <c r="G26" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H26" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="I26" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -5134,13 +5137,13 @@
         <v>476</v>
       </c>
       <c r="G27" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H27" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="I27" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -5160,16 +5163,16 @@
         <v>477</v>
       </c>
       <c r="G28" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H28" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="I28" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
       <c r="J28" t="s">
-        <v>1337</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -5189,16 +5192,16 @@
         <v>478</v>
       </c>
       <c r="G29" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H29" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="I29" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
       <c r="J29" t="s">
-        <v>1337</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -5218,13 +5221,13 @@
         <v>479</v>
       </c>
       <c r="G30" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H30" t="s">
-        <v>1321</v>
+        <v>1316</v>
       </c>
       <c r="I30" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -5244,13 +5247,13 @@
         <v>480</v>
       </c>
       <c r="G31" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H31" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="I31" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -5270,13 +5273,13 @@
         <v>481</v>
       </c>
       <c r="G32" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H32" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="I32" t="s">
-        <v>1340</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -5296,13 +5299,13 @@
         <v>482</v>
       </c>
       <c r="G33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H33" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="I33" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -5322,13 +5325,13 @@
         <v>483</v>
       </c>
       <c r="G34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H34" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="I34" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -5348,13 +5351,13 @@
         <v>484</v>
       </c>
       <c r="G35" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H35" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="I35" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -5374,13 +5377,13 @@
         <v>485</v>
       </c>
       <c r="G36" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H36" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="I36" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -5400,13 +5403,13 @@
         <v>486</v>
       </c>
       <c r="G37" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H37" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="I37" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -5426,13 +5429,13 @@
         <v>487</v>
       </c>
       <c r="G38" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H38" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="I38" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -5452,13 +5455,13 @@
         <v>488</v>
       </c>
       <c r="G39" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H39" t="s">
-        <v>1348</v>
+        <v>1340</v>
       </c>
       <c r="I39" t="s">
-        <v>1341</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -5478,13 +5481,13 @@
         <v>489</v>
       </c>
       <c r="G40" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H40" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="I40" t="s">
-        <v>1341</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -5504,13 +5507,13 @@
         <v>490</v>
       </c>
       <c r="G41" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H41" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="I41" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -5530,13 +5533,13 @@
         <v>491</v>
       </c>
       <c r="G42" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H42" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="I42" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -5556,13 +5559,13 @@
         <v>492</v>
       </c>
       <c r="G43" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H43" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="I43" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -5582,13 +5585,13 @@
         <v>493</v>
       </c>
       <c r="G44" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H44" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="I44" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -5608,13 +5611,13 @@
         <v>494</v>
       </c>
       <c r="G45" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H45" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="I45" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -5634,13 +5637,13 @@
         <v>495</v>
       </c>
       <c r="G46" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H46" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="I46" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -5660,13 +5663,13 @@
         <v>496</v>
       </c>
       <c r="G47" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H47" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="I47" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -5686,13 +5689,13 @@
         <v>497</v>
       </c>
       <c r="G48" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H48" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="I48" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -5712,13 +5715,13 @@
         <v>498</v>
       </c>
       <c r="G49" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="H49" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="I49" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -5738,13 +5741,13 @@
         <v>499</v>
       </c>
       <c r="G50" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H50" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="I50" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -5764,13 +5767,13 @@
         <v>500</v>
       </c>
       <c r="G51" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H51" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="I51" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -5790,13 +5793,13 @@
         <v>501</v>
       </c>
       <c r="G52" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H52" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="I52" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -5816,13 +5819,13 @@
         <v>502</v>
       </c>
       <c r="G53" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="H53" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="I53" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -5842,13 +5845,13 @@
         <v>503</v>
       </c>
       <c r="G54" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H54" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="I54" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -5868,13 +5871,13 @@
         <v>504</v>
       </c>
       <c r="G55" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H55" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="I55" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -5894,13 +5897,13 @@
         <v>505</v>
       </c>
       <c r="G56" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H56" t="s">
-        <v>1326</v>
+        <v>1319</v>
       </c>
       <c r="I56" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -5920,13 +5923,13 @@
         <v>506</v>
       </c>
       <c r="G57" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H57" t="s">
-        <v>1326</v>
+        <v>1319</v>
       </c>
       <c r="I57" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -5946,13 +5949,13 @@
         <v>507</v>
       </c>
       <c r="G58" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="H58" t="s">
-        <v>1326</v>
+        <v>1319</v>
       </c>
       <c r="I58" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -5972,13 +5975,13 @@
         <v>508</v>
       </c>
       <c r="G59" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H59" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="I59" t="s">
-        <v>1340</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -5998,16 +6001,16 @@
         <v>509</v>
       </c>
       <c r="G60" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="H60" t="s">
-        <v>1323</v>
+        <v>1317</v>
       </c>
       <c r="I60" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
       <c r="J60" t="s">
-        <v>1337</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -6027,16 +6030,16 @@
         <v>510</v>
       </c>
       <c r="G61" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="H61" t="s">
-        <v>1323</v>
+        <v>1317</v>
       </c>
       <c r="I61" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
       <c r="J61" t="s">
-        <v>1337</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -6056,16 +6059,16 @@
         <v>511</v>
       </c>
       <c r="G62" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H62" t="s">
-        <v>1323</v>
+        <v>1317</v>
       </c>
       <c r="I62" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
       <c r="J62" t="s">
-        <v>1337</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -6085,13 +6088,13 @@
         <v>512</v>
       </c>
       <c r="G63" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H63" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="I63" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -6111,13 +6114,13 @@
         <v>513</v>
       </c>
       <c r="G64" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H64" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="I64" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
@@ -6137,13 +6140,13 @@
         <v>514</v>
       </c>
       <c r="G65" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H65" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="I65" t="s">
-        <v>1340</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
@@ -6163,13 +6166,13 @@
         <v>515</v>
       </c>
       <c r="G66" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="H66" t="s">
-        <v>1325</v>
+        <v>1344</v>
       </c>
       <c r="I66" t="s">
-        <v>1340</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
@@ -6189,13 +6192,13 @@
         <v>516</v>
       </c>
       <c r="G67" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="H67" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="I67" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
@@ -6215,13 +6218,13 @@
         <v>517</v>
       </c>
       <c r="G68" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H68" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="I68" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
@@ -6241,13 +6244,13 @@
         <v>518</v>
       </c>
       <c r="G69" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H69" t="s">
-        <v>1207</v>
+        <v>1349</v>
       </c>
       <c r="I69" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
@@ -6267,13 +6270,13 @@
         <v>519</v>
       </c>
       <c r="G70" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H70" t="s">
-        <v>1207</v>
+        <v>1349</v>
       </c>
       <c r="I70" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
@@ -6293,13 +6296,13 @@
         <v>520</v>
       </c>
       <c r="G71" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H71" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="I71" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
@@ -6319,13 +6322,13 @@
         <v>521</v>
       </c>
       <c r="G72" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="H72" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="I72" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
@@ -6345,13 +6348,13 @@
         <v>522</v>
       </c>
       <c r="G73" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="H73" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="I73" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
@@ -6371,13 +6374,13 @@
         <v>523</v>
       </c>
       <c r="G74" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H74" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="I74" t="s">
-        <v>1340</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
@@ -6397,13 +6400,13 @@
         <v>524</v>
       </c>
       <c r="G75" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H75" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="I75" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
@@ -6423,13 +6426,13 @@
         <v>525</v>
       </c>
       <c r="G76" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H76" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="I76" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
@@ -6449,13 +6452,13 @@
         <v>526</v>
       </c>
       <c r="G77" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H77" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="I77" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
@@ -6475,13 +6478,13 @@
         <v>527</v>
       </c>
       <c r="G78" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="H78" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="I78" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
@@ -6501,13 +6504,13 @@
         <v>528</v>
       </c>
       <c r="G79" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H79" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="I79" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
@@ -6527,13 +6530,13 @@
         <v>529</v>
       </c>
       <c r="G80" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H80" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="I80" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -6553,13 +6556,13 @@
         <v>530</v>
       </c>
       <c r="G81" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="H81" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="I81" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -6579,13 +6582,13 @@
         <v>531</v>
       </c>
       <c r="G82" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H82" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="I82" t="s">
-        <v>1340</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
@@ -6605,16 +6608,16 @@
         <v>532</v>
       </c>
       <c r="G83" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H83" t="s">
-        <v>1323</v>
+        <v>1317</v>
       </c>
       <c r="I83" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
       <c r="J83" t="s">
-        <v>1337</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
@@ -6634,13 +6637,13 @@
         <v>533</v>
       </c>
       <c r="G84" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="H84" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="I84" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
@@ -6660,13 +6663,13 @@
         <v>534</v>
       </c>
       <c r="G85" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H85" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="I85" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
@@ -6686,13 +6689,13 @@
         <v>535</v>
       </c>
       <c r="G86" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H86" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="I86" t="s">
-        <v>1340</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
@@ -6712,19 +6715,19 @@
         <v>536</v>
       </c>
       <c r="G87" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="H87" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="I87" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
       <c r="K87" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="L87" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
@@ -6747,13 +6750,13 @@
         <v>537</v>
       </c>
       <c r="G88" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H88" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="I88" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
@@ -6776,13 +6779,13 @@
         <v>538</v>
       </c>
       <c r="G89" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H89" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="I89" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
@@ -6802,13 +6805,13 @@
         <v>539</v>
       </c>
       <c r="G90" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H90" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="I90" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
@@ -6831,13 +6834,13 @@
         <v>540</v>
       </c>
       <c r="G91" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H91" t="s">
-        <v>1324</v>
+        <v>1318</v>
       </c>
       <c r="I91" t="s">
-        <v>1340</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
@@ -6860,13 +6863,13 @@
         <v>541</v>
       </c>
       <c r="G92" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H92" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="I92" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
@@ -6889,13 +6892,13 @@
         <v>542</v>
       </c>
       <c r="G93" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H93" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="I93" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
@@ -6918,13 +6921,13 @@
         <v>543</v>
       </c>
       <c r="G94" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H94" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="I94" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
@@ -6944,13 +6947,13 @@
         <v>544</v>
       </c>
       <c r="G95" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H95" t="s">
-        <v>1332</v>
+        <v>1324</v>
       </c>
       <c r="I95" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
@@ -6970,13 +6973,13 @@
         <v>545</v>
       </c>
       <c r="G96" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H96" t="s">
-        <v>1328</v>
+        <v>1347</v>
       </c>
       <c r="I96" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -6996,13 +6999,13 @@
         <v>546</v>
       </c>
       <c r="G97" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H97" t="s">
-        <v>1328</v>
+        <v>1347</v>
       </c>
       <c r="I97" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -7022,13 +7025,13 @@
         <v>547</v>
       </c>
       <c r="G98" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H98" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="I98" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -7048,13 +7051,13 @@
         <v>548</v>
       </c>
       <c r="G99" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H99" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="I99" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -7074,13 +7077,13 @@
         <v>549</v>
       </c>
       <c r="G100" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H100" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="I100" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -7100,19 +7103,19 @@
         <v>550</v>
       </c>
       <c r="G101" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H101" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="I101" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
       <c r="K101" t="s">
-        <v>1333</v>
+        <v>1325</v>
       </c>
       <c r="L101" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -7132,19 +7135,19 @@
         <v>551</v>
       </c>
       <c r="G102" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H102" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="I102" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
       <c r="K102" t="s">
-        <v>1333</v>
+        <v>1325</v>
       </c>
       <c r="L102" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -7164,13 +7167,13 @@
         <v>552</v>
       </c>
       <c r="G103" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H103" t="s">
-        <v>1333</v>
+        <v>1325</v>
       </c>
       <c r="I103" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
@@ -7190,13 +7193,13 @@
         <v>553</v>
       </c>
       <c r="G104" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H104" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="I104" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -7216,13 +7219,13 @@
         <v>554</v>
       </c>
       <c r="G105" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H105" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="I105" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
@@ -7242,13 +7245,13 @@
         <v>555</v>
       </c>
       <c r="G106" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H106" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="I106" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -7268,13 +7271,13 @@
         <v>556</v>
       </c>
       <c r="G107" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H107" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="I107" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -7294,13 +7297,13 @@
         <v>557</v>
       </c>
       <c r="G108" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H108" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="I108" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -7320,13 +7323,13 @@
         <v>558</v>
       </c>
       <c r="G109" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H109" t="s">
+        <v>1323</v>
+      </c>
+      <c r="I109" t="s">
         <v>1331</v>
-      </c>
-      <c r="I109" t="s">
-        <v>1339</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
@@ -7346,13 +7349,13 @@
         <v>559</v>
       </c>
       <c r="G110" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H110" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="I110" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
@@ -7372,13 +7375,13 @@
         <v>560</v>
       </c>
       <c r="G111" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H111" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="I111" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
@@ -7398,16 +7401,16 @@
         <v>561</v>
       </c>
       <c r="G112" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H112" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="I112" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
       <c r="J112" t="s">
-        <v>1337</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
@@ -7427,16 +7430,16 @@
         <v>562</v>
       </c>
       <c r="G113" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H113" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="I113" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
       <c r="J113" t="s">
-        <v>1337</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
@@ -7456,16 +7459,16 @@
         <v>563</v>
       </c>
       <c r="G114" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H114" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="I114" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
       <c r="J114" t="s">
-        <v>1337</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
@@ -7485,16 +7488,16 @@
         <v>564</v>
       </c>
       <c r="G115" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H115" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="I115" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
       <c r="J115" t="s">
-        <v>1337</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
@@ -7514,16 +7517,16 @@
         <v>565</v>
       </c>
       <c r="G116" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H116" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="I116" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
       <c r="J116" t="s">
-        <v>1337</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
@@ -7543,16 +7546,16 @@
         <v>539</v>
       </c>
       <c r="G117" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H117" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="I117" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
       <c r="J117" t="s">
-        <v>1337</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
@@ -7572,16 +7575,16 @@
         <v>566</v>
       </c>
       <c r="G118" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H118" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="I118" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
       <c r="J118" t="s">
-        <v>1342</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
@@ -7601,16 +7604,16 @@
         <v>567</v>
       </c>
       <c r="G119" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H119" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="I119" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
       <c r="J119" t="s">
-        <v>1342</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
@@ -7630,13 +7633,13 @@
         <v>568</v>
       </c>
       <c r="G120" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="H120" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="I120" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
@@ -7656,13 +7659,13 @@
         <v>569</v>
       </c>
       <c r="G121" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="H121" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="I121" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
@@ -7682,13 +7685,13 @@
         <v>570</v>
       </c>
       <c r="G122" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H122" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="I122" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
@@ -7708,13 +7711,13 @@
         <v>571</v>
       </c>
       <c r="G123" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="H123" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="I123" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
@@ -7734,13 +7737,13 @@
         <v>572</v>
       </c>
       <c r="G124" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H124" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="I124" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
@@ -7760,13 +7763,13 @@
         <v>573</v>
       </c>
       <c r="G125" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H125" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="I125" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
@@ -7786,13 +7789,13 @@
         <v>574</v>
       </c>
       <c r="G126" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H126" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="I126" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
@@ -7812,13 +7815,13 @@
         <v>575</v>
       </c>
       <c r="G127" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H127" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="I127" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
@@ -7838,13 +7841,13 @@
         <v>576</v>
       </c>
       <c r="G128" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="H128" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="I128" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
@@ -7864,13 +7867,13 @@
         <v>577</v>
       </c>
       <c r="G129" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H129" t="s">
-        <v>1218</v>
+        <v>1350</v>
       </c>
       <c r="I129" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
@@ -7890,13 +7893,13 @@
         <v>578</v>
       </c>
       <c r="G130" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H130" t="s">
-        <v>1218</v>
+        <v>1350</v>
       </c>
       <c r="I130" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
@@ -7916,13 +7919,13 @@
         <v>579</v>
       </c>
       <c r="G131" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H131" t="s">
-        <v>1218</v>
+        <v>1350</v>
       </c>
       <c r="I131" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
@@ -7942,13 +7945,13 @@
         <v>580</v>
       </c>
       <c r="G132" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H132" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="I132" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
@@ -7968,13 +7971,13 @@
         <v>581</v>
       </c>
       <c r="G133" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H133" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="I133" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
@@ -7994,13 +7997,13 @@
         <v>582</v>
       </c>
       <c r="G134" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H134" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="I134" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
@@ -8020,13 +8023,13 @@
         <v>583</v>
       </c>
       <c r="G135" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H135" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="I135" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
@@ -8046,13 +8049,13 @@
         <v>584</v>
       </c>
       <c r="G136" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="H136" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="I136" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
@@ -8072,13 +8075,13 @@
         <v>585</v>
       </c>
       <c r="G137" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H137" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="I137" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
@@ -8098,13 +8101,13 @@
         <v>586</v>
       </c>
       <c r="G138" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="H138" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="I138" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
@@ -8124,13 +8127,13 @@
         <v>587</v>
       </c>
       <c r="G139" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="H139" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="I139" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
@@ -8150,13 +8153,13 @@
         <v>588</v>
       </c>
       <c r="G140" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H140" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="I140" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
@@ -8176,13 +8179,13 @@
         <v>589</v>
       </c>
       <c r="G141" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H141" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="I141" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
@@ -8202,13 +8205,13 @@
         <v>590</v>
       </c>
       <c r="G142" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H142" t="s">
-        <v>1334</v>
+        <v>1326</v>
       </c>
       <c r="I142" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
@@ -8228,13 +8231,13 @@
         <v>591</v>
       </c>
       <c r="G143" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H143" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="I143" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
@@ -8254,13 +8257,13 @@
         <v>592</v>
       </c>
       <c r="G144" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H144" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="I144" t="s">
-        <v>1341</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
@@ -8280,13 +8283,13 @@
         <v>593</v>
       </c>
       <c r="G145" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H145" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="I145" t="s">
-        <v>1341</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
@@ -8306,13 +8309,13 @@
         <v>594</v>
       </c>
       <c r="G146" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H146" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="I146" t="s">
-        <v>1341</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
@@ -8332,13 +8335,13 @@
         <v>595</v>
       </c>
       <c r="G147" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H147" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="I147" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
@@ -8358,13 +8361,13 @@
         <v>596</v>
       </c>
       <c r="G148" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="H148" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="I148" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
@@ -8384,13 +8387,13 @@
         <v>597</v>
       </c>
       <c r="G149" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H149" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="I149" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
@@ -8410,13 +8413,13 @@
         <v>598</v>
       </c>
       <c r="G150" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="H150" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="I150" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
@@ -8436,13 +8439,13 @@
         <v>599</v>
       </c>
       <c r="G151" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="H151" t="s">
-        <v>1349</v>
+        <v>1341</v>
       </c>
       <c r="I151" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
@@ -8462,13 +8465,13 @@
         <v>600</v>
       </c>
       <c r="G152" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H152" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="I152" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
@@ -8488,13 +8491,13 @@
         <v>601</v>
       </c>
       <c r="G153" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H153" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="I153" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
@@ -8514,19 +8517,19 @@
         <v>602</v>
       </c>
       <c r="G154" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H154" t="s">
-        <v>1327</v>
+        <v>1320</v>
       </c>
       <c r="I154" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
       <c r="K154" t="s">
-        <v>1343</v>
+        <v>1335</v>
       </c>
       <c r="L154" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
@@ -8546,13 +8549,13 @@
         <v>603</v>
       </c>
       <c r="G155" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="H155" t="s">
-        <v>1327</v>
+        <v>1320</v>
       </c>
       <c r="I155" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
@@ -8572,13 +8575,13 @@
         <v>604</v>
       </c>
       <c r="G156" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H156" t="s">
-        <v>1327</v>
+        <v>1320</v>
       </c>
       <c r="I156" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
@@ -8598,13 +8601,13 @@
         <v>605</v>
       </c>
       <c r="G157" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H157" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="I157" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
@@ -8624,13 +8627,13 @@
         <v>606</v>
       </c>
       <c r="G158" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="H158" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="I158" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
@@ -8650,13 +8653,13 @@
         <v>607</v>
       </c>
       <c r="G159" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="H159" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="I159" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
@@ -8676,13 +8679,13 @@
         <v>608</v>
       </c>
       <c r="G160" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H160" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="I160" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
@@ -8702,13 +8705,13 @@
         <v>609</v>
       </c>
       <c r="G161" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="H161" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="I161" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
@@ -8728,13 +8731,13 @@
         <v>610</v>
       </c>
       <c r="G162" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H162" t="s">
-        <v>1346</v>
+        <v>1338</v>
       </c>
       <c r="I162" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
@@ -8754,13 +8757,13 @@
         <v>611</v>
       </c>
       <c r="G163" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H163" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="I163" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
@@ -8780,13 +8783,13 @@
         <v>612</v>
       </c>
       <c r="G164" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H164" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="I164" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
@@ -8806,13 +8809,13 @@
         <v>613</v>
       </c>
       <c r="G165" t="s">
-        <v>1012</v>
-      </c>
-      <c r="H165" t="s">
-        <v>1303</v>
+        <v>1011</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>1346</v>
       </c>
       <c r="I165" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
@@ -8832,13 +8835,13 @@
         <v>614</v>
       </c>
       <c r="G166" t="s">
-        <v>1013</v>
-      </c>
-      <c r="H166" t="s">
-        <v>1303</v>
+        <v>1012</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>1346</v>
       </c>
       <c r="I166" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
@@ -8858,13 +8861,13 @@
         <v>615</v>
       </c>
       <c r="G167" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="H167" t="s">
-        <v>1304</v>
+        <v>1299</v>
       </c>
       <c r="I167" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
@@ -8884,13 +8887,13 @@
         <v>616</v>
       </c>
       <c r="G168" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H168" t="s">
-        <v>1351</v>
+        <v>1343</v>
       </c>
       <c r="I168" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
@@ -8910,13 +8913,13 @@
         <v>617</v>
       </c>
       <c r="G169" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H169" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="I169" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
@@ -8936,13 +8939,13 @@
         <v>618</v>
       </c>
       <c r="G170" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="H170" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="I170" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
@@ -8962,13 +8965,13 @@
         <v>619</v>
       </c>
       <c r="G171" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H171" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="I171" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
@@ -8988,13 +8991,13 @@
         <v>620</v>
       </c>
       <c r="G172" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="H172" t="s">
-        <v>1305</v>
+        <v>1300</v>
       </c>
       <c r="I172" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
@@ -9014,13 +9017,13 @@
         <v>621</v>
       </c>
       <c r="G173" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="H173" t="s">
-        <v>1305</v>
+        <v>1300</v>
       </c>
       <c r="I173" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
@@ -9040,13 +9043,13 @@
         <v>622</v>
       </c>
       <c r="G174" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H174" t="s">
-        <v>1328</v>
+        <v>1347</v>
       </c>
       <c r="I174" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
@@ -9066,13 +9069,13 @@
         <v>623</v>
       </c>
       <c r="G175" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="H175" t="s">
-        <v>1305</v>
+        <v>1300</v>
       </c>
       <c r="I175" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
@@ -9092,13 +9095,13 @@
         <v>624</v>
       </c>
       <c r="G176" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="H176" t="s">
-        <v>1306</v>
+        <v>1301</v>
       </c>
       <c r="I176" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
@@ -9118,13 +9121,13 @@
         <v>625</v>
       </c>
       <c r="G177" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H177" t="s">
-        <v>1306</v>
+        <v>1301</v>
       </c>
       <c r="I177" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
@@ -9144,13 +9147,13 @@
         <v>626</v>
       </c>
       <c r="G178" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="H178" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="I178" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
@@ -9170,13 +9173,13 @@
         <v>627</v>
       </c>
       <c r="G179" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H179" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="I179" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
@@ -9196,13 +9199,13 @@
         <v>628</v>
       </c>
       <c r="G180" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H180" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="I180" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
@@ -9222,13 +9225,13 @@
         <v>629</v>
       </c>
       <c r="G181" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H181" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="I181" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
@@ -9248,13 +9251,13 @@
         <v>630</v>
       </c>
       <c r="G182" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="H182" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="I182" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
@@ -9274,13 +9277,13 @@
         <v>631</v>
       </c>
       <c r="G183" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H183" t="s">
-        <v>1350</v>
+        <v>1342</v>
       </c>
       <c r="I183" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
@@ -9300,13 +9303,13 @@
         <v>632</v>
       </c>
       <c r="G184" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="H184" t="s">
-        <v>1350</v>
+        <v>1342</v>
       </c>
       <c r="I184" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
@@ -9326,13 +9329,13 @@
         <v>633</v>
       </c>
       <c r="G185" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="H185" t="s">
-        <v>1350</v>
+        <v>1342</v>
       </c>
       <c r="I185" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
@@ -9352,13 +9355,13 @@
         <v>634</v>
       </c>
       <c r="G186" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H186" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="I186" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
@@ -9378,13 +9381,13 @@
         <v>635</v>
       </c>
       <c r="G187" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="H187" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="I187" t="s">
-        <v>1347</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
@@ -9404,13 +9407,13 @@
         <v>636</v>
       </c>
       <c r="G188" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="H188" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="I188" t="s">
-        <v>1347</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
@@ -9430,13 +9433,13 @@
         <v>637</v>
       </c>
       <c r="G189" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="H189" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="I189" t="s">
-        <v>1347</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
@@ -9456,13 +9459,13 @@
         <v>638</v>
       </c>
       <c r="G190" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="H190" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="I190" t="s">
-        <v>1347</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
@@ -9482,10 +9485,10 @@
         <v>639</v>
       </c>
       <c r="G191" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H191" t="s">
-        <v>1344</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
@@ -9505,10 +9508,10 @@
         <v>640</v>
       </c>
       <c r="G192" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H192" t="s">
-        <v>1344</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
@@ -9528,10 +9531,10 @@
         <v>641</v>
       </c>
       <c r="G193" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="H193" t="s">
-        <v>1344</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.3">
@@ -9551,10 +9554,10 @@
         <v>642</v>
       </c>
       <c r="G194" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="H194" t="s">
-        <v>1344</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.3">
@@ -9574,13 +9577,13 @@
         <v>643</v>
       </c>
       <c r="G195" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="H195" t="s">
-        <v>1307</v>
+        <v>1302</v>
       </c>
       <c r="I195" t="s">
-        <v>1347</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.3">
@@ -9600,13 +9603,13 @@
         <v>644</v>
       </c>
       <c r="G196" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H196" t="s">
-        <v>1307</v>
+        <v>1302</v>
       </c>
       <c r="I196" t="s">
-        <v>1347</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.3">
@@ -9626,13 +9629,13 @@
         <v>645</v>
       </c>
       <c r="G197" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H197" t="s">
-        <v>1307</v>
+        <v>1302</v>
       </c>
       <c r="I197" t="s">
-        <v>1347</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.3">
@@ -9652,13 +9655,13 @@
         <v>646</v>
       </c>
       <c r="G198" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H198" t="s">
-        <v>1307</v>
+        <v>1302</v>
       </c>
       <c r="I198" t="s">
-        <v>1347</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.3">
@@ -9678,13 +9681,13 @@
         <v>647</v>
       </c>
       <c r="G199" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="H199" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="I199" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.3">
@@ -9704,13 +9707,13 @@
         <v>648</v>
       </c>
       <c r="G200" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="H200" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="I200" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
@@ -9730,13 +9733,13 @@
         <v>649</v>
       </c>
       <c r="G201" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="H201" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="I201" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.3">
@@ -9756,13 +9759,13 @@
         <v>650</v>
       </c>
       <c r="G202" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H202" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="I202" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.3">
@@ -9782,13 +9785,13 @@
         <v>651</v>
       </c>
       <c r="G203" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="H203" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="I203" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.3">
@@ -9808,13 +9811,13 @@
         <v>652</v>
       </c>
       <c r="G204" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="H204" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="I204" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.3">
@@ -9834,13 +9837,13 @@
         <v>653</v>
       </c>
       <c r="G205" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H205" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="I205" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.3">
@@ -9860,16 +9863,16 @@
         <v>654</v>
       </c>
       <c r="G206" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="H206" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="I206" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
       <c r="J206" t="s">
-        <v>1337</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.3">
@@ -9889,16 +9892,16 @@
         <v>655</v>
       </c>
       <c r="G207" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="H207" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="I207" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
       <c r="J207" t="s">
-        <v>1337</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.3">
@@ -9918,16 +9921,16 @@
         <v>656</v>
       </c>
       <c r="G208" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="H208" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="I208" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
       <c r="J208" t="s">
-        <v>1337</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.3">
@@ -9947,16 +9950,16 @@
         <v>657</v>
       </c>
       <c r="G209" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H209" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="I209" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
       <c r="J209" t="s">
-        <v>1337</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.3">
@@ -9976,13 +9979,13 @@
         <v>658</v>
       </c>
       <c r="G210" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="H210" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="I210" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.3">
@@ -10002,13 +10005,13 @@
         <v>659</v>
       </c>
       <c r="G211" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="H211" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="I211" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.3">
@@ -10028,13 +10031,13 @@
         <v>660</v>
       </c>
       <c r="G212" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="H212" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="I212" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.3">
@@ -10054,13 +10057,13 @@
         <v>661</v>
       </c>
       <c r="G213" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="H213" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="I213" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.3">
@@ -10080,13 +10083,13 @@
         <v>662</v>
       </c>
       <c r="G214" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H214" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="I214" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.3">
@@ -10106,13 +10109,13 @@
         <v>663</v>
       </c>
       <c r="G215" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="H215" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="I215" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.3">
@@ -10132,13 +10135,13 @@
         <v>664</v>
       </c>
       <c r="G216" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="H216" t="s">
-        <v>1329</v>
+        <v>1321</v>
       </c>
       <c r="I216" t="s">
-        <v>1340</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.3">
@@ -10158,13 +10161,13 @@
         <v>665</v>
       </c>
       <c r="G217" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="H217" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="I217" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.3">
@@ -10184,13 +10187,13 @@
         <v>666</v>
       </c>
       <c r="G218" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="H218" t="s">
-        <v>1329</v>
+        <v>1321</v>
       </c>
       <c r="I218" t="s">
-        <v>1340</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.3">
@@ -10210,13 +10213,13 @@
         <v>667</v>
       </c>
       <c r="G219" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H219" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="I219" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.3">
@@ -10236,13 +10239,13 @@
         <v>668</v>
       </c>
       <c r="G220" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H220" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="I220" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.3">
@@ -10262,13 +10265,13 @@
         <v>669</v>
       </c>
       <c r="G221" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="H221" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="I221" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.3">
@@ -10288,13 +10291,13 @@
         <v>670</v>
       </c>
       <c r="G222" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="H222" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="I222" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.3">
@@ -10314,13 +10317,13 @@
         <v>671</v>
       </c>
       <c r="G223" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H223" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="I223" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.3">
@@ -10340,13 +10343,13 @@
         <v>672</v>
       </c>
       <c r="G224" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H224" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="I224" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.3">
@@ -10366,13 +10369,13 @@
         <v>673</v>
       </c>
       <c r="G225" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="H225" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="I225" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.3">
@@ -10392,13 +10395,13 @@
         <v>674</v>
       </c>
       <c r="G226" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="H226" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="I226" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.3">
@@ -10418,13 +10421,13 @@
         <v>675</v>
       </c>
       <c r="G227" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="H227" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="I227" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.3">
@@ -10444,13 +10447,13 @@
         <v>676</v>
       </c>
       <c r="G228" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="H228" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="I228" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.3">
@@ -10470,13 +10473,13 @@
         <v>677</v>
       </c>
       <c r="G229" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="H229" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="I229" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.3">
@@ -10496,13 +10499,13 @@
         <v>678</v>
       </c>
       <c r="G230" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="H230" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="I230" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.3">
@@ -10522,13 +10525,13 @@
         <v>679</v>
       </c>
       <c r="G231" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="H231" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="I231" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.3">
@@ -10548,13 +10551,13 @@
         <v>680</v>
       </c>
       <c r="G232" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="H232" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="I232" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.3">
@@ -10574,13 +10577,13 @@
         <v>681</v>
       </c>
       <c r="G233" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H233" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="I233" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.3">
@@ -10600,13 +10603,13 @@
         <v>682</v>
       </c>
       <c r="G234" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="H234" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="I234" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.3">
@@ -10626,13 +10629,13 @@
         <v>683</v>
       </c>
       <c r="G235" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="H235" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="I235" t="s">
-        <v>1341</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.3">
@@ -10652,13 +10655,13 @@
         <v>684</v>
       </c>
       <c r="G236" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="H236" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="I236" t="s">
-        <v>1341</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.3">
@@ -10678,13 +10681,13 @@
         <v>685</v>
       </c>
       <c r="G237" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="H237" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="I237" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.3">
@@ -10704,13 +10707,13 @@
         <v>686</v>
       </c>
       <c r="G238" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H238" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="I238" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.3">
@@ -10730,16 +10733,16 @@
         <v>687</v>
       </c>
       <c r="G239" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="H239" t="s">
-        <v>1308</v>
+        <v>1303</v>
       </c>
       <c r="I239" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
       <c r="J239" t="s">
-        <v>1337</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.3">
@@ -10759,16 +10762,16 @@
         <v>688</v>
       </c>
       <c r="G240" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="H240" t="s">
-        <v>1308</v>
+        <v>1303</v>
       </c>
       <c r="I240" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
       <c r="J240" t="s">
-        <v>1337</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.3">
@@ -10788,13 +10791,13 @@
         <v>689</v>
       </c>
       <c r="G241" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="H241" t="s">
-        <v>1309</v>
+        <v>1304</v>
       </c>
       <c r="I241" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.3">
@@ -10814,13 +10817,13 @@
         <v>690</v>
       </c>
       <c r="G242" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="H242" t="s">
-        <v>1309</v>
+        <v>1304</v>
       </c>
       <c r="I242" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.3">
@@ -10840,13 +10843,13 @@
         <v>691</v>
       </c>
       <c r="G243" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="H243" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="I243" t="s">
-        <v>1341</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.3">
@@ -10866,16 +10869,16 @@
         <v>692</v>
       </c>
       <c r="G244" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H244" t="s">
-        <v>1308</v>
+        <v>1303</v>
       </c>
       <c r="I244" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
       <c r="J244" t="s">
-        <v>1337</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.3">
@@ -10895,13 +10898,13 @@
         <v>693</v>
       </c>
       <c r="G245" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H245" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="I245" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.3">
@@ -10921,13 +10924,13 @@
         <v>694</v>
       </c>
       <c r="G246" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H246" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="I246" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.3">
@@ -10947,13 +10950,13 @@
         <v>695</v>
       </c>
       <c r="G247" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H247" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="I247" t="s">
-        <v>1340</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.3">
@@ -10973,13 +10976,13 @@
         <v>696</v>
       </c>
       <c r="G248" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="H248" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="I248" t="s">
-        <v>1340</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.3">
@@ -10999,13 +11002,13 @@
         <v>697</v>
       </c>
       <c r="G249" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="H249" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="I249" t="s">
-        <v>1340</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.3">
@@ -11025,13 +11028,13 @@
         <v>698</v>
       </c>
       <c r="G250" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="H250" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="I250" t="s">
-        <v>1340</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.3">
@@ -11051,13 +11054,13 @@
         <v>699</v>
       </c>
       <c r="G251" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H251" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="I251" t="s">
-        <v>1340</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.3">
@@ -11074,16 +11077,16 @@
         <v>448</v>
       </c>
       <c r="F252" t="s">
-        <v>700</v>
+        <v>1345</v>
       </c>
       <c r="G252" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H252" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="I252" t="s">
-        <v>1340</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.3">
@@ -11100,16 +11103,16 @@
         <v>448</v>
       </c>
       <c r="F253" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G253" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="H253" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="I253" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.3">
@@ -11126,16 +11129,16 @@
         <v>448</v>
       </c>
       <c r="F254" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G254" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="H254" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="I254" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.3">
@@ -11152,16 +11155,16 @@
         <v>448</v>
       </c>
       <c r="F255" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G255" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="H255" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="I255" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.3">
@@ -11178,16 +11181,16 @@
         <v>448</v>
       </c>
       <c r="F256" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G256" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H256" t="s">
-        <v>1310</v>
+        <v>1305</v>
       </c>
       <c r="I256" t="s">
-        <v>1345</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
@@ -11204,16 +11207,16 @@
         <v>448</v>
       </c>
       <c r="F257" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G257" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="H257" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="I257" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
@@ -11230,16 +11233,16 @@
         <v>448</v>
       </c>
       <c r="F258" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="G258" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="H258" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="I258" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
@@ -11256,16 +11259,16 @@
         <v>448</v>
       </c>
       <c r="F259" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="G259" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="H259" t="s">
-        <v>1335</v>
+        <v>1327</v>
       </c>
       <c r="I259" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
@@ -11282,16 +11285,16 @@
         <v>448</v>
       </c>
       <c r="F260" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G260" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H260" t="s">
-        <v>1335</v>
+        <v>1327</v>
       </c>
       <c r="I260" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
@@ -11308,16 +11311,16 @@
         <v>448</v>
       </c>
       <c r="F261" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G261" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="H261" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="I261" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
@@ -11334,16 +11337,16 @@
         <v>448</v>
       </c>
       <c r="F262" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G262" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H262" t="s">
-        <v>1311</v>
+        <v>1306</v>
       </c>
       <c r="I262" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.3">
@@ -11360,16 +11363,16 @@
         <v>448</v>
       </c>
       <c r="F263" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G263" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="H263" t="s">
-        <v>1312</v>
+        <v>1307</v>
       </c>
       <c r="I263" t="s">
-        <v>1341</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
@@ -11386,16 +11389,16 @@
         <v>448</v>
       </c>
       <c r="F264" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G264" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="H264" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="I264" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
@@ -11412,16 +11415,16 @@
         <v>448</v>
       </c>
       <c r="F265" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="G265" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H265" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="I265" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
@@ -11438,16 +11441,16 @@
         <v>448</v>
       </c>
       <c r="F266" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G266" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H266" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="I266" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
@@ -11464,16 +11467,16 @@
         <v>448</v>
       </c>
       <c r="F267" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G267" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="H267" t="s">
-        <v>1335</v>
+        <v>1327</v>
       </c>
       <c r="I267" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
@@ -11490,16 +11493,16 @@
         <v>448</v>
       </c>
       <c r="F268" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G268" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="H268" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="I268" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
@@ -11516,16 +11519,16 @@
         <v>448</v>
       </c>
       <c r="F269" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="G269" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="H269" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="I269" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
@@ -11542,16 +11545,16 @@
         <v>448</v>
       </c>
       <c r="F270" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G270" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="H270" t="s">
-        <v>1335</v>
+        <v>1327</v>
       </c>
       <c r="I270" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
@@ -11568,16 +11571,16 @@
         <v>448</v>
       </c>
       <c r="F271" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G271" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H271" t="s">
-        <v>1335</v>
+        <v>1327</v>
       </c>
       <c r="I271" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
@@ -11594,16 +11597,16 @@
         <v>448</v>
       </c>
       <c r="F272" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G272" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="H272" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="I272" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.3">
@@ -11620,16 +11623,16 @@
         <v>448</v>
       </c>
       <c r="F273" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G273" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="H273" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="I273" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.3">
@@ -11646,16 +11649,16 @@
         <v>448</v>
       </c>
       <c r="F274" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G274" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="H274" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="I274" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.3">
@@ -11672,16 +11675,16 @@
         <v>448</v>
       </c>
       <c r="F275" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G275" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="H275" t="s">
-        <v>1313</v>
+        <v>1308</v>
       </c>
       <c r="I275" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.3">
@@ -11698,16 +11701,16 @@
         <v>448</v>
       </c>
       <c r="F276" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G276" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="H276" t="s">
-        <v>1313</v>
+        <v>1308</v>
       </c>
       <c r="I276" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.3">
@@ -11724,16 +11727,16 @@
         <v>448</v>
       </c>
       <c r="F277" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G277" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H277" t="s">
-        <v>1314</v>
+        <v>1309</v>
       </c>
       <c r="I277" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.3">
@@ -11750,16 +11753,16 @@
         <v>448</v>
       </c>
       <c r="F278" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="G278" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="H278" t="s">
-        <v>1314</v>
+        <v>1309</v>
       </c>
       <c r="I278" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.3">
@@ -11776,16 +11779,16 @@
         <v>448</v>
       </c>
       <c r="F279" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G279" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H279" t="s">
-        <v>1314</v>
+        <v>1309</v>
       </c>
       <c r="I279" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.3">
@@ -11802,16 +11805,16 @@
         <v>448</v>
       </c>
       <c r="F280" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G280" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="H280" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="I280" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.3">
@@ -11828,16 +11831,16 @@
         <v>448</v>
       </c>
       <c r="F281" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G281" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="H281" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="I281" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.3">
@@ -11857,16 +11860,16 @@
         <v>448</v>
       </c>
       <c r="F282" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G282" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="H282" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="I282" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.3">
@@ -11883,16 +11886,16 @@
         <v>448</v>
       </c>
       <c r="F283" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G283" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="H283" t="s">
-        <v>1315</v>
+        <v>1310</v>
       </c>
       <c r="I283" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.3">
@@ -11909,16 +11912,16 @@
         <v>448</v>
       </c>
       <c r="F284" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G284" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H284" t="s">
-        <v>1315</v>
+        <v>1310</v>
       </c>
       <c r="I284" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.3">
@@ -11935,16 +11938,16 @@
         <v>448</v>
       </c>
       <c r="F285" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G285" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="H285" t="s">
-        <v>1316</v>
+        <v>1311</v>
       </c>
       <c r="I285" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.3">
@@ -11961,16 +11964,16 @@
         <v>448</v>
       </c>
       <c r="F286" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G286" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H286" t="s">
-        <v>1316</v>
+        <v>1311</v>
       </c>
       <c r="I286" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.3">
@@ -11987,16 +11990,16 @@
         <v>448</v>
       </c>
       <c r="F287" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G287" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="H287" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="I287" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.3">
@@ -12013,16 +12016,16 @@
         <v>448</v>
       </c>
       <c r="F288" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G288" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="H288" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="I288" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.3">
@@ -12039,16 +12042,16 @@
         <v>448</v>
       </c>
       <c r="F289" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="G289" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="H289" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="I289" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.3">
@@ -12065,16 +12068,16 @@
         <v>448</v>
       </c>
       <c r="F290" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="G290" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="H290" t="s">
-        <v>1314</v>
+        <v>1309</v>
       </c>
       <c r="I290" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.3">
@@ -12091,16 +12094,16 @@
         <v>448</v>
       </c>
       <c r="F291" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G291" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="H291" t="s">
-        <v>1314</v>
+        <v>1309</v>
       </c>
       <c r="I291" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.3">
@@ -12117,16 +12120,16 @@
         <v>448</v>
       </c>
       <c r="F292" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G292" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="H292" t="s">
-        <v>1314</v>
+        <v>1309</v>
       </c>
       <c r="I292" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.3">
@@ -12143,16 +12146,16 @@
         <v>448</v>
       </c>
       <c r="F293" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G293" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H293" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="I293" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.3">
@@ -12169,16 +12172,16 @@
         <v>448</v>
       </c>
       <c r="F294" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G294" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H294" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="I294" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.3">
@@ -12198,16 +12201,16 @@
         <v>448</v>
       </c>
       <c r="F295" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G295" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="H295" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="I295" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.3">
@@ -12227,16 +12230,16 @@
         <v>448</v>
       </c>
       <c r="F296" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="G296" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H296" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="I296" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.3">
@@ -12253,16 +12256,16 @@
         <v>448</v>
       </c>
       <c r="F297" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="G297" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H297" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="I297" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.3">
@@ -12279,16 +12282,16 @@
         <v>448</v>
       </c>
       <c r="F298" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="G298" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="H298" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="I298" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.3">
@@ -12305,16 +12308,16 @@
         <v>448</v>
       </c>
       <c r="F299" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="G299" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H299" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="I299" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.3">
@@ -12331,16 +12334,16 @@
         <v>448</v>
       </c>
       <c r="F300" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G300" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H300" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="I300" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.3">
@@ -12357,16 +12360,16 @@
         <v>448</v>
       </c>
       <c r="F301" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G301" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H301" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="I301" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.3">
@@ -12383,16 +12386,16 @@
         <v>448</v>
       </c>
       <c r="F302" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G302" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="H302" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="I302" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.3">
@@ -12409,16 +12412,16 @@
         <v>448</v>
       </c>
       <c r="F303" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="G303" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H303" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="I303" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.3">
@@ -12435,16 +12438,16 @@
         <v>448</v>
       </c>
       <c r="F304" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="G304" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H304" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="I304" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.3">
@@ -12461,16 +12464,16 @@
         <v>448</v>
       </c>
       <c r="F305" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G305" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H305" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="I305" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.3">
@@ -12487,16 +12490,16 @@
         <v>448</v>
       </c>
       <c r="F306" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G306" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="H306" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="I306" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.3">
@@ -12513,16 +12516,16 @@
         <v>448</v>
       </c>
       <c r="F307" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G307" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H307" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="I307" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.3">
@@ -12539,16 +12542,16 @@
         <v>448</v>
       </c>
       <c r="F308" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G308" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="H308" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="I308" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.3">
@@ -12565,16 +12568,16 @@
         <v>448</v>
       </c>
       <c r="F309" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G309" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="H309" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="I309" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.3">
@@ -12591,16 +12594,16 @@
         <v>448</v>
       </c>
       <c r="F310" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G310" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="H310" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="I310" t="s">
-        <v>1341</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.3">
@@ -12617,16 +12620,16 @@
         <v>448</v>
       </c>
       <c r="F311" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G311" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="H311" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="I311" t="s">
-        <v>1341</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.3">
@@ -12643,16 +12646,16 @@
         <v>448</v>
       </c>
       <c r="F312" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G312" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H312" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="I312" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.3">
@@ -12669,16 +12672,16 @@
         <v>448</v>
       </c>
       <c r="F313" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G313" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H313" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="I313" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.3">
@@ -12695,16 +12698,16 @@
         <v>448</v>
       </c>
       <c r="F314" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G314" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="H314" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="I314" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.3">
@@ -12721,16 +12724,16 @@
         <v>448</v>
       </c>
       <c r="F315" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G315" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="H315" t="s">
-        <v>1330</v>
+        <v>1322</v>
       </c>
       <c r="I315" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.3">
@@ -12747,16 +12750,16 @@
         <v>448</v>
       </c>
       <c r="F316" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G316" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H316" t="s">
-        <v>1330</v>
+        <v>1322</v>
       </c>
       <c r="I316" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.3">
@@ -12773,16 +12776,16 @@
         <v>448</v>
       </c>
       <c r="F317" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G317" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H317" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="I317" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.3">
@@ -12799,16 +12802,16 @@
         <v>448</v>
       </c>
       <c r="F318" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G318" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="H318" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="I318" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.3">
@@ -12825,16 +12828,16 @@
         <v>448</v>
       </c>
       <c r="F319" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G319" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="H319" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="I319" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.3">
@@ -12851,16 +12854,16 @@
         <v>448</v>
       </c>
       <c r="F320" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G320" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H320" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="I320" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.3">
@@ -12877,16 +12880,16 @@
         <v>448</v>
       </c>
       <c r="F321" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G321" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="H321" t="s">
-        <v>1317</v>
+        <v>1312</v>
       </c>
       <c r="I321" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.3">
@@ -12903,16 +12906,16 @@
         <v>448</v>
       </c>
       <c r="F322" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G322" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="H322" t="s">
-        <v>1317</v>
+        <v>1312</v>
       </c>
       <c r="I322" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.3">
@@ -12932,16 +12935,16 @@
         <v>448</v>
       </c>
       <c r="F323" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G323" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H323" t="s">
-        <v>1317</v>
+        <v>1312</v>
       </c>
       <c r="I323" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.3">
@@ -12958,16 +12961,16 @@
         <v>448</v>
       </c>
       <c r="F324" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G324" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H324" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="I324" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.3">
@@ -12984,16 +12987,16 @@
         <v>448</v>
       </c>
       <c r="F325" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G325" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="H325" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="I325" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.3">
@@ -13010,16 +13013,16 @@
         <v>448</v>
       </c>
       <c r="F326" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G326" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H326" t="s">
-        <v>1330</v>
+        <v>1322</v>
       </c>
       <c r="I326" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.3">
@@ -13036,16 +13039,16 @@
         <v>448</v>
       </c>
       <c r="F327" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G327" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="H327" t="s">
-        <v>1330</v>
+        <v>1322</v>
       </c>
       <c r="I327" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.3">
@@ -13062,16 +13065,16 @@
         <v>448</v>
       </c>
       <c r="F328" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G328" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="H328" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="I328" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.3">
@@ -13088,16 +13091,16 @@
         <v>448</v>
       </c>
       <c r="F329" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G329" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="H329" t="s">
-        <v>1317</v>
+        <v>1312</v>
       </c>
       <c r="I329" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
@@ -13114,16 +13117,16 @@
         <v>448</v>
       </c>
       <c r="F330" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G330" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="H330" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="I330" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.3">
@@ -13140,16 +13143,16 @@
         <v>448</v>
       </c>
       <c r="F331" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G331" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H331" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="I331" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.3">
@@ -13166,16 +13169,16 @@
         <v>448</v>
       </c>
       <c r="F332" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G332" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="H332" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="I332" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.3">
@@ -13192,16 +13195,16 @@
         <v>448</v>
       </c>
       <c r="F333" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G333" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="H333" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="I333" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.3">
@@ -13218,16 +13221,16 @@
         <v>448</v>
       </c>
       <c r="F334" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G334" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="H334" t="s">
-        <v>1312</v>
+        <v>1307</v>
       </c>
       <c r="I334" t="s">
-        <v>1341</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
@@ -13244,16 +13247,16 @@
         <v>448</v>
       </c>
       <c r="F335" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G335" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="H335" t="s">
-        <v>1312</v>
+        <v>1307</v>
       </c>
       <c r="I335" t="s">
-        <v>1341</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
@@ -13270,16 +13273,16 @@
         <v>448</v>
       </c>
       <c r="F336" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="G336" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="H336" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="I336" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.3">
@@ -13296,16 +13299,16 @@
         <v>448</v>
       </c>
       <c r="F337" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G337" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H337" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="I337" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.3">
@@ -13325,16 +13328,16 @@
         <v>448</v>
       </c>
       <c r="F338" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G338" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="H338" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="I338" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.3">
@@ -13351,16 +13354,16 @@
         <v>448</v>
       </c>
       <c r="F339" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G339" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="H339" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="I339" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.3">
@@ -13377,16 +13380,16 @@
         <v>448</v>
       </c>
       <c r="F340" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G340" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H340" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="I340" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.3">
@@ -13403,16 +13406,16 @@
         <v>448</v>
       </c>
       <c r="F341" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G341" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="H341" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="I341" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.3">
@@ -13429,16 +13432,16 @@
         <v>448</v>
       </c>
       <c r="F342" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G342" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H342" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="I342" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.3">
@@ -13455,16 +13458,16 @@
         <v>448</v>
       </c>
       <c r="F343" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G343" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="H343" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="I343" t="s">
-        <v>1340</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.3">
@@ -13481,16 +13484,16 @@
         <v>448</v>
       </c>
       <c r="F344" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G344" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H344" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="I344" t="s">
-        <v>1340</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.3">
@@ -13507,16 +13510,16 @@
         <v>448</v>
       </c>
       <c r="F345" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G345" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="H345" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="I345" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.3">
@@ -13533,16 +13536,16 @@
         <v>448</v>
       </c>
       <c r="F346" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G346" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H346" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="I346" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.3">
@@ -13559,16 +13562,16 @@
         <v>448</v>
       </c>
       <c r="F347" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G347" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H347" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="I347" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.3">
@@ -13585,16 +13588,16 @@
         <v>449</v>
       </c>
       <c r="F348" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G348" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="H348" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="I348" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.3">
@@ -13611,16 +13614,16 @@
         <v>449</v>
       </c>
       <c r="F349" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G349" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="H349" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="I349" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.3">
@@ -13637,16 +13640,16 @@
         <v>449</v>
       </c>
       <c r="F350" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G350" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="H350" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="I350" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.3">
@@ -13663,16 +13666,16 @@
         <v>449</v>
       </c>
       <c r="F351" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G351" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H351" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="I351" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.3">
@@ -13689,16 +13692,16 @@
         <v>449</v>
       </c>
       <c r="F352" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G352" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="H352" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="I352" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.3">
@@ -13715,16 +13718,16 @@
         <v>449</v>
       </c>
       <c r="F353" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G353" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H353" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="I353" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.3">
@@ -13741,16 +13744,16 @@
         <v>449</v>
       </c>
       <c r="F354" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G354" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="H354" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="I354" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.3">
@@ -13767,16 +13770,16 @@
         <v>449</v>
       </c>
       <c r="F355" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G355" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="H355" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="I355" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.3">
@@ -13793,16 +13796,16 @@
         <v>449</v>
       </c>
       <c r="F356" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G356" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="H356" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="I356" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.3">
@@ -13822,16 +13825,16 @@
         <v>449</v>
       </c>
       <c r="F357" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G357" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H357" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="I357" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.3">
@@ -13851,16 +13854,16 @@
         <v>449</v>
       </c>
       <c r="F358" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G358" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H358" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="I358" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.3">
@@ -13880,16 +13883,16 @@
         <v>449</v>
       </c>
       <c r="F359" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G359" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H359" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="I359" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.3">
@@ -13909,16 +13912,16 @@
         <v>449</v>
       </c>
       <c r="F360" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G360" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="H360" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="I360" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.3">
@@ -13935,16 +13938,16 @@
         <v>449</v>
       </c>
       <c r="F361" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G361" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="H361" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="I361" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.3">
@@ -13961,16 +13964,16 @@
         <v>449</v>
       </c>
       <c r="F362" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G362" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H362" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="I362" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.3">
@@ -13987,16 +13990,16 @@
         <v>449</v>
       </c>
       <c r="F363" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G363" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H363" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="I363" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.3">
@@ -14013,16 +14016,16 @@
         <v>449</v>
       </c>
       <c r="F364" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G364" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="H364" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="I364" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.3">
@@ -14039,16 +14042,16 @@
         <v>449</v>
       </c>
       <c r="F365" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G365" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="H365" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="I365" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.3">
@@ -14065,16 +14068,16 @@
         <v>449</v>
       </c>
       <c r="F366" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G366" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H366" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="I366" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.3">
@@ -14091,16 +14094,16 @@
         <v>449</v>
       </c>
       <c r="F367" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G367" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H367" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="I367" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.3">
@@ -14117,16 +14120,16 @@
         <v>449</v>
       </c>
       <c r="F368" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="G368" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H368" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="I368" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.3">
@@ -14143,16 +14146,16 @@
         <v>449</v>
       </c>
       <c r="F369" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G369" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="H369" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="I369" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.3">
@@ -14172,16 +14175,16 @@
         <v>449</v>
       </c>
       <c r="F370" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G370" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="H370" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="I370" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.3">
@@ -14198,16 +14201,16 @@
         <v>449</v>
       </c>
       <c r="F371" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G371" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="H371" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="I371" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.3">
@@ -14224,16 +14227,16 @@
         <v>449</v>
       </c>
       <c r="F372" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="G372" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="H372" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="I372" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.3">
@@ -14250,16 +14253,16 @@
         <v>449</v>
       </c>
       <c r="F373" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="G373" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="H373" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="I373" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.3">
@@ -14276,16 +14279,16 @@
         <v>449</v>
       </c>
       <c r="F374" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G374" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="H374" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="I374" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.3">
@@ -14302,16 +14305,16 @@
         <v>449</v>
       </c>
       <c r="F375" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G375" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="H375" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="I375" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.3">
@@ -14328,16 +14331,16 @@
         <v>449</v>
       </c>
       <c r="F376" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="G376" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="H376" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="I376" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.3">
@@ -14354,16 +14357,16 @@
         <v>449</v>
       </c>
       <c r="F377" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="G377" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="H377" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="I377" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.3">
@@ -14380,16 +14383,16 @@
         <v>449</v>
       </c>
       <c r="F378" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="G378" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="H378" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="I378" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.3">
@@ -14406,16 +14409,16 @@
         <v>449</v>
       </c>
       <c r="F379" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="G379" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="H379" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="I379" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.3">
@@ -14432,16 +14435,16 @@
         <v>449</v>
       </c>
       <c r="F380" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="G380" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="H380" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="I380" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.3">
@@ -14458,16 +14461,16 @@
         <v>449</v>
       </c>
       <c r="F381" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="G381" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="H381" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="I381" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.3">
@@ -14484,19 +14487,19 @@
         <v>449</v>
       </c>
       <c r="F382" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G382" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="H382" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="I382" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
       <c r="J382" t="s">
-        <v>1337</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.3">
@@ -14513,19 +14516,19 @@
         <v>449</v>
       </c>
       <c r="F383" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G383" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="H383" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="I383" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
       <c r="J383" t="s">
-        <v>1337</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.3">
@@ -14542,19 +14545,19 @@
         <v>449</v>
       </c>
       <c r="F384" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G384" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H384" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="I384" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
       <c r="J384" t="s">
-        <v>1337</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.3">
@@ -14571,19 +14574,19 @@
         <v>449</v>
       </c>
       <c r="F385" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="G385" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H385" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="I385" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
       <c r="J385" t="s">
-        <v>1337</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="386" spans="1:10" x14ac:dyDescent="0.3">
@@ -14600,16 +14603,16 @@
         <v>449</v>
       </c>
       <c r="F386" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G386" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H386" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="I386" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.3">
@@ -14626,16 +14629,16 @@
         <v>449</v>
       </c>
       <c r="F387" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G387" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H387" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="I387" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="388" spans="1:10" x14ac:dyDescent="0.3">
@@ -14652,16 +14655,16 @@
         <v>449</v>
       </c>
       <c r="F388" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G388" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H388" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="I388" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.3">
@@ -14678,16 +14681,16 @@
         <v>449</v>
       </c>
       <c r="F389" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G389" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H389" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="I389" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.3">
@@ -14704,16 +14707,16 @@
         <v>449</v>
       </c>
       <c r="F390" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G390" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H390" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="I390" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="391" spans="1:10" x14ac:dyDescent="0.3">
@@ -14730,16 +14733,16 @@
         <v>449</v>
       </c>
       <c r="F391" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G391" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H391" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="I391" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.3">
@@ -14759,16 +14762,16 @@
         <v>449</v>
       </c>
       <c r="F392" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="G392" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="H392" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="I392" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="393" spans="1:10" x14ac:dyDescent="0.3">
@@ -14788,16 +14791,16 @@
         <v>449</v>
       </c>
       <c r="F393" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G393" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="H393" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="I393" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.3">
@@ -14817,16 +14820,16 @@
         <v>449</v>
       </c>
       <c r="F394" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="G394" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="H394" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="I394" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="395" spans="1:10" x14ac:dyDescent="0.3">
@@ -14846,16 +14849,16 @@
         <v>449</v>
       </c>
       <c r="F395" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="G395" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H395" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="I395" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.3">
@@ -14875,16 +14878,16 @@
         <v>449</v>
       </c>
       <c r="F396" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G396" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H396" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="I396" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.3">
@@ -14904,16 +14907,16 @@
         <v>449</v>
       </c>
       <c r="F397" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G397" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="H397" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="I397" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.3">
@@ -14933,16 +14936,16 @@
         <v>449</v>
       </c>
       <c r="F398" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="G398" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="H398" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="I398" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.3">
@@ -14962,16 +14965,16 @@
         <v>449</v>
       </c>
       <c r="F399" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="G399" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H399" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="I399" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.3">
@@ -14991,16 +14994,16 @@
         <v>449</v>
       </c>
       <c r="F400" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="G400" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H400" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="I400" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="401" spans="1:12" x14ac:dyDescent="0.3">
@@ -15017,16 +15020,16 @@
         <v>449</v>
       </c>
       <c r="F401" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="G401" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H401" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="I401" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="402" spans="1:12" x14ac:dyDescent="0.3">
@@ -15043,16 +15046,16 @@
         <v>449</v>
       </c>
       <c r="F402" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="G402" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H402" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="I402" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="403" spans="1:12" x14ac:dyDescent="0.3">
@@ -15069,16 +15072,16 @@
         <v>449</v>
       </c>
       <c r="F403" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G403" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="H403" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="I403" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="404" spans="1:12" x14ac:dyDescent="0.3">
@@ -15095,16 +15098,16 @@
         <v>449</v>
       </c>
       <c r="F404" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="G404" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="H404" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="I404" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="405" spans="1:12" x14ac:dyDescent="0.3">
@@ -15121,16 +15124,16 @@
         <v>449</v>
       </c>
       <c r="F405" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="G405" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="H405" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="I405" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="406" spans="1:12" x14ac:dyDescent="0.3">
@@ -15147,16 +15150,16 @@
         <v>449</v>
       </c>
       <c r="F406" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="G406" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H406" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="I406" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="407" spans="1:12" x14ac:dyDescent="0.3">
@@ -15173,22 +15176,22 @@
         <v>449</v>
       </c>
       <c r="F407" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="G407" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H407" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="I407" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
       <c r="K407" t="s">
-        <v>1318</v>
+        <v>1313</v>
       </c>
       <c r="L407" t="s">
-        <v>1341</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="408" spans="1:12" x14ac:dyDescent="0.3">
@@ -15205,16 +15208,16 @@
         <v>449</v>
       </c>
       <c r="F408" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G408" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H408" t="s">
-        <v>1318</v>
+        <v>1313</v>
       </c>
       <c r="I408" t="s">
-        <v>1341</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="409" spans="1:12" x14ac:dyDescent="0.3">
@@ -15231,16 +15234,16 @@
         <v>449</v>
       </c>
       <c r="F409" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="G409" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="H409" t="s">
-        <v>1319</v>
+        <v>1314</v>
       </c>
       <c r="I409" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="410" spans="1:12" x14ac:dyDescent="0.3">
@@ -15257,16 +15260,16 @@
         <v>449</v>
       </c>
       <c r="F410" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="G410" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="H410" t="s">
-        <v>1319</v>
+        <v>1314</v>
       </c>
       <c r="I410" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="411" spans="1:12" x14ac:dyDescent="0.3">
@@ -15283,16 +15286,16 @@
         <v>449</v>
       </c>
       <c r="F411" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="G411" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="H411" t="s">
-        <v>1319</v>
+        <v>1314</v>
       </c>
       <c r="I411" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="412" spans="1:12" x14ac:dyDescent="0.3">
@@ -15309,16 +15312,16 @@
         <v>449</v>
       </c>
       <c r="F412" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G412" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="H412" t="s">
-        <v>1319</v>
+        <v>1314</v>
       </c>
       <c r="I412" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="413" spans="1:12" x14ac:dyDescent="0.3">
@@ -15335,16 +15338,16 @@
         <v>449</v>
       </c>
       <c r="F413" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G413" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="H413" t="s">
-        <v>1319</v>
+        <v>1314</v>
       </c>
       <c r="I413" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="414" spans="1:12" x14ac:dyDescent="0.3">
@@ -15361,16 +15364,16 @@
         <v>449</v>
       </c>
       <c r="F414" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G414" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="H414" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="I414" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="415" spans="1:12" x14ac:dyDescent="0.3">
@@ -15387,16 +15390,16 @@
         <v>449</v>
       </c>
       <c r="F415" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="G415" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H415" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="I415" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="416" spans="1:12" x14ac:dyDescent="0.3">
@@ -15413,16 +15416,16 @@
         <v>449</v>
       </c>
       <c r="F416" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="G416" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="H416" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="I416" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.3">
@@ -15439,16 +15442,16 @@
         <v>449</v>
       </c>
       <c r="F417" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="G417" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H417" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="I417" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.3">
@@ -15465,16 +15468,16 @@
         <v>449</v>
       </c>
       <c r="F418" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G418" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="H418" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="I418" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.3">
@@ -15491,16 +15494,16 @@
         <v>449</v>
       </c>
       <c r="F419" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="G419" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="H419" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="I419" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.3">
@@ -15517,16 +15520,16 @@
         <v>449</v>
       </c>
       <c r="F420" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="G420" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H420" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="I420" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.3">
@@ -15543,16 +15546,16 @@
         <v>449</v>
       </c>
       <c r="F421" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="G421" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="H421" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="I421" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.3">
@@ -15569,16 +15572,16 @@
         <v>449</v>
       </c>
       <c r="F422" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="G422" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H422" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="I422" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.3">
@@ -15598,16 +15601,16 @@
         <v>449</v>
       </c>
       <c r="F423" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="G423" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="H423" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="I423" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.3">
@@ -15624,16 +15627,16 @@
         <v>449</v>
       </c>
       <c r="F424" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="G424" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H424" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="I424" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.3">
@@ -15650,16 +15653,16 @@
         <v>449</v>
       </c>
       <c r="F425" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="G425" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="H425" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="I425" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.3">
@@ -15676,16 +15679,16 @@
         <v>449</v>
       </c>
       <c r="F426" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="G426" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H426" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="I426" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.3">
@@ -15702,16 +15705,16 @@
         <v>449</v>
       </c>
       <c r="F427" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="G427" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="H427" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="I427" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.3">
@@ -15728,16 +15731,16 @@
         <v>449</v>
       </c>
       <c r="F428" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="G428" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H428" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="I428" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.3">
@@ -15754,16 +15757,16 @@
         <v>449</v>
       </c>
       <c r="F429" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="G429" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H429" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="I429" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.3">
@@ -15780,16 +15783,16 @@
         <v>449</v>
       </c>
       <c r="F430" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="G430" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H430" t="s">
-        <v>1292</v>
+        <v>1351</v>
       </c>
       <c r="I430" t="s">
-        <v>1339</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.3">
@@ -15806,16 +15809,16 @@
         <v>449</v>
       </c>
       <c r="F431" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="G431" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H431" t="s">
-        <v>1292</v>
+        <v>1351</v>
       </c>
       <c r="I431" t="s">
-        <v>1339</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.3">
@@ -15832,16 +15835,16 @@
         <v>449</v>
       </c>
       <c r="F432" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G432" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H432" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="I432" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.3">
@@ -15858,16 +15861,16 @@
         <v>449</v>
       </c>
       <c r="F433" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="G433" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="H433" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="I433" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.3">
@@ -15884,16 +15887,16 @@
         <v>449</v>
       </c>
       <c r="F434" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G434" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H434" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="I434" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.3">
@@ -15910,16 +15913,16 @@
         <v>449</v>
       </c>
       <c r="F435" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G435" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H435" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="I435" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.3">
@@ -15936,16 +15939,16 @@
         <v>449</v>
       </c>
       <c r="F436" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="G436" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H436" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="I436" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.3">
@@ -15962,16 +15965,16 @@
         <v>449</v>
       </c>
       <c r="F437" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G437" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="H437" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="I437" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.3">
@@ -15988,16 +15991,16 @@
         <v>449</v>
       </c>
       <c r="F438" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G438" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H438" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="I438" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.3">
@@ -16014,16 +16017,16 @@
         <v>449</v>
       </c>
       <c r="F439" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="G439" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="H439" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="I439" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.3">
@@ -16040,16 +16043,16 @@
         <v>449</v>
       </c>
       <c r="F440" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="G440" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="H440" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="I440" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.3">
@@ -16066,16 +16069,16 @@
         <v>449</v>
       </c>
       <c r="F441" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="G441" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="H441" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="I441" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
     </row>
   </sheetData>
